--- a/datacombined LH001006.xls.xlsx
+++ b/datacombined LH001006.xls.xlsx
@@ -1063,25 +1063,25 @@
         <v>0.000701691937547213</v>
       </c>
       <c r="BW2" t="n">
-        <v>305.5</v>
+        <v>295.5</v>
       </c>
       <c r="BX2" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY2" s="2" t="n">
         <v>44757.79961332176</v>
       </c>
       <c r="BZ2" t="n">
-        <v>20.213</v>
+        <v>20.21533333333334</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00674948557710405</v>
+        <v>0.007302967433401595</v>
       </c>
       <c r="CB2" t="n">
-        <v>14.29</v>
+        <v>14.29166666666667</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>0.009128709291753379</v>
       </c>
     </row>
     <row r="3">
@@ -1308,25 +1308,25 @@
         <v>0.0146597556099978</v>
       </c>
       <c r="BW3" t="n">
-        <v>395.5</v>
+        <v>385.5</v>
       </c>
       <c r="BX3" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY3" s="2" t="n">
         <v>44757.86211332176</v>
       </c>
       <c r="BZ3" t="n">
-        <v>20.191</v>
+        <v>20.19100000000001</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.007378647873727049</v>
+        <v>0.008847364696279005</v>
       </c>
       <c r="CB3" t="n">
-        <v>31.68</v>
+        <v>31.66799999999997</v>
       </c>
       <c r="CC3" t="n">
-        <v>0</v>
+        <v>0.01864366398797524</v>
       </c>
     </row>
     <row r="4">
@@ -1553,10 +1553,10 @@
         <v>0.0157839550357323</v>
       </c>
       <c r="BW4" t="n">
-        <v>486.5</v>
+        <v>476.5</v>
       </c>
       <c r="BX4" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY4" s="2" t="n">
         <v>44757.92530776621</v>
@@ -1565,13 +1565,13 @@
         <v>20.194</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.01074967699773117</v>
+        <v>0.0106996616124384</v>
       </c>
       <c r="CB4" t="n">
-        <v>47.288</v>
+        <v>47.26466666666666</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.01932183566158689</v>
+        <v>0.03159368480471814</v>
       </c>
     </row>
     <row r="5">
@@ -1798,25 +1798,25 @@
         <v>0.0277421896946578</v>
       </c>
       <c r="BW5" t="n">
-        <v>577.5</v>
+        <v>567.5</v>
       </c>
       <c r="BX5" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY5" s="2" t="n">
         <v>44757.98850221065</v>
       </c>
       <c r="BZ5" t="n">
-        <v>20.186</v>
+        <v>20.18666666666667</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.01173787790777236</v>
+        <v>0.0106133726101048</v>
       </c>
       <c r="CB5" t="n">
-        <v>62.379</v>
+        <v>62.34199999999998</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.01449137674618912</v>
+        <v>0.03772861348978997</v>
       </c>
     </row>
     <row r="6">
@@ -2043,25 +2043,25 @@
         <v>0.0271783329761665</v>
       </c>
       <c r="BW6" t="n">
-        <v>667.5</v>
+        <v>657.5</v>
       </c>
       <c r="BX6" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY6" s="2" t="n">
         <v>44758.05100221065</v>
       </c>
       <c r="BZ6" t="n">
-        <v>20.192</v>
+        <v>20.195</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0103279555898868</v>
+        <v>0.01106407669457506</v>
       </c>
       <c r="CB6" t="n">
-        <v>77.23999999999999</v>
+        <v>77.18233333333333</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.02000000000000465</v>
+        <v>0.05217234921861383</v>
       </c>
     </row>
     <row r="7">
@@ -2288,25 +2288,25 @@
         <v>0.008463329667981681</v>
       </c>
       <c r="BW7" t="n">
-        <v>787.5</v>
+        <v>777.5</v>
       </c>
       <c r="BX7" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY7" s="2" t="n">
         <v>44758.13433554398</v>
       </c>
       <c r="BZ7" t="n">
-        <v>20.198</v>
+        <v>20.19533333333334</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.006324555320336198</v>
+        <v>0.009371024061115906</v>
       </c>
       <c r="CB7" t="n">
-        <v>89.383</v>
+        <v>89.31299999999995</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.01636391694484769</v>
+        <v>0.06347141631990867</v>
       </c>
     </row>
     <row r="8">
@@ -2533,25 +2533,25 @@
         <v>0.0280722924715457</v>
       </c>
       <c r="BW8" t="n">
-        <v>878.5</v>
+        <v>868.5</v>
       </c>
       <c r="BX8" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY8" s="2" t="n">
         <v>44758.19752998843</v>
       </c>
       <c r="BZ8" t="n">
-        <v>20.19</v>
+        <v>20.188</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.01154700538379149</v>
+        <v>0.009247553264474871</v>
       </c>
       <c r="CB8" t="n">
-        <v>78.45000000000002</v>
+        <v>78.48366666666666</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.02108185106778494</v>
+        <v>0.03306037667278629</v>
       </c>
     </row>
     <row r="9">
@@ -2778,25 +2778,25 @@
         <v>0.0225733132274093</v>
       </c>
       <c r="BW9" t="n">
-        <v>969.5</v>
+        <v>959.5</v>
       </c>
       <c r="BX9" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY9" s="2" t="n">
         <v>44758.26072443287</v>
       </c>
       <c r="BZ9" t="n">
-        <v>20.185</v>
+        <v>20.18766666666667</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.01080123449734649</v>
+        <v>0.0104000442085714</v>
       </c>
       <c r="CB9" t="n">
-        <v>63.60700000000001</v>
+        <v>63.65899999999998</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.01702938636592656</v>
+        <v>0.04929503017546817</v>
       </c>
     </row>
     <row r="10">
@@ -3023,25 +3023,25 @@
         <v>0.0225429755717043</v>
       </c>
       <c r="BW10" t="n">
-        <v>1061.5</v>
+        <v>1051.5</v>
       </c>
       <c r="BX10" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY10" s="2" t="n">
         <v>44758.32461332176</v>
       </c>
       <c r="BZ10" t="n">
-        <v>20.187</v>
+        <v>20.18566666666667</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.01059349905471339</v>
+        <v>0.01072648457158028</v>
       </c>
       <c r="CB10" t="n">
-        <v>48.30399999999999</v>
+        <v>48.35333333333333</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.01897366596101159</v>
+        <v>0.05743562113107454</v>
       </c>
     </row>
     <row r="11">
@@ -3268,25 +3268,25 @@
         <v>0.008418171453228349</v>
       </c>
       <c r="BW11" t="n">
-        <v>1152.5</v>
+        <v>1142.5</v>
       </c>
       <c r="BX11" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY11" s="2" t="n">
         <v>44758.3878077662</v>
       </c>
       <c r="BZ11" t="n">
-        <v>20.193</v>
+        <v>20.18833333333334</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.00948683298050448</v>
+        <v>0.009498941259818433</v>
       </c>
       <c r="CB11" t="n">
-        <v>32.522</v>
+        <v>32.55799999999999</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.01549193338483079</v>
+        <v>0.03827306606750742</v>
       </c>
     </row>
     <row r="12">
@@ -3513,25 +3513,25 @@
         <v>0.000755041806649868</v>
       </c>
       <c r="BW12" t="n">
-        <v>1243.5</v>
+        <v>1233.5</v>
       </c>
       <c r="BX12" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY12" s="2" t="n">
         <v>44758.45100221065</v>
       </c>
       <c r="BZ12" t="n">
-        <v>20.208</v>
+        <v>20.205</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.007888106377466585</v>
+        <v>0.008200084103858099</v>
       </c>
       <c r="CB12" t="n">
-        <v>14.542</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.01932183566158666</v>
+        <v>0.0397694505292976</v>
       </c>
     </row>
     <row r="13">
@@ -3758,10 +3758,10 @@
         <v>0.00266802352742819</v>
       </c>
       <c r="BW13" t="n">
-        <v>1425.5</v>
+        <v>1415.5</v>
       </c>
       <c r="BX13" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY13" s="2" t="n">
         <v>44758.57739109953</v>
@@ -3773,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="CB13" t="n">
-        <v>13.85</v>
+        <v>13.85133333333334</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>0.00730296743340242</v>
       </c>
     </row>
     <row r="14">
@@ -4003,25 +4003,25 @@
         <v>0.015905407352011</v>
       </c>
       <c r="BW14" t="n">
-        <v>1515.5</v>
+        <v>1505.5</v>
       </c>
       <c r="BX14" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY14" s="2" t="n">
         <v>44758.63989109953</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.31</v>
+        <v>0.3089999999999999</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>0.005477225575051655</v>
       </c>
       <c r="CB14" t="n">
-        <v>31.062</v>
+        <v>31.00766666666667</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.03155242550986453</v>
+        <v>0.05049297208409215</v>
       </c>
     </row>
     <row r="15">
@@ -4248,25 +4248,25 @@
         <v>0.0194379026605417</v>
       </c>
       <c r="BW15" t="n">
-        <v>1606.5</v>
+        <v>1596.5</v>
       </c>
       <c r="BX15" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY15" s="2" t="n">
         <v>44758.70308554398</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.286</v>
+        <v>0.289</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.0126491106406735</v>
+        <v>0.01398274799098197</v>
       </c>
       <c r="CB15" t="n">
-        <v>46.645</v>
+        <v>46.5716666666667</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.01581138830083841</v>
+        <v>0.06417021187399782</v>
       </c>
     </row>
     <row r="16">
@@ -4493,25 +4493,25 @@
         <v>0.0251903516332451</v>
       </c>
       <c r="BW16" t="n">
-        <v>1696.5</v>
+        <v>1686.5</v>
       </c>
       <c r="BX16" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY16" s="2" t="n">
         <v>44758.76558554398</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.31</v>
+        <v>0.3089999999999999</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>0.005477225575051653</v>
       </c>
       <c r="CB16" t="n">
-        <v>61.96</v>
+        <v>61.89000000000002</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.02309401076757888</v>
+        <v>0.06405816322579412</v>
       </c>
     </row>
     <row r="17">
@@ -4738,25 +4738,25 @@
         <v>0.0377494533180363</v>
       </c>
       <c r="BW17" t="n">
-        <v>1787.5</v>
+        <v>1777.5</v>
       </c>
       <c r="BX17" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY17" s="2" t="n">
         <v>44758.82877998843</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.31</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="CA17" t="n">
         <v>0</v>
       </c>
       <c r="CB17" t="n">
-        <v>77.10900000000001</v>
+        <v>77.02833333333332</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.02078995483935143</v>
+        <v>0.08141351803932834</v>
       </c>
     </row>
     <row r="18">
@@ -4983,10 +4983,10 @@
         <v>0.00919625607684167</v>
       </c>
       <c r="BW18" t="n">
-        <v>1938.5</v>
+        <v>1928.5</v>
       </c>
       <c r="BX18" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY18" s="2" t="n">
         <v>44758.93364109954</v>
@@ -4998,10 +4998,10 @@
         <v>0</v>
       </c>
       <c r="CB18" t="n">
-        <v>92.28799999999998</v>
+        <v>92.17433333333339</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.03119829055145775</v>
+        <v>0.1011548261358715</v>
       </c>
     </row>
     <row r="19">
@@ -5228,10 +5228,10 @@
         <v>0.0446562039041779</v>
       </c>
       <c r="BW19" t="n">
-        <v>2030.5</v>
+        <v>2020.5</v>
       </c>
       <c r="BX19" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY19" s="2" t="n">
         <v>44758.99752998842</v>
@@ -5243,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="CB19" t="n">
-        <v>79.373</v>
+        <v>79.43633333333338</v>
       </c>
       <c r="CC19" t="n">
-        <v>0.01636391694484424</v>
+        <v>0.0583971736050397</v>
       </c>
     </row>
     <row r="20">
@@ -5473,25 +5473,25 @@
         <v>0.0295955860367739</v>
       </c>
       <c r="BW20" t="n">
-        <v>2122.5</v>
+        <v>2112.5</v>
       </c>
       <c r="BX20" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY20" s="2" t="n">
         <v>44759.06141887732</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.2800000000000001</v>
+        <v>0.2790000000000001</v>
       </c>
       <c r="CA20" t="n">
-        <v>0</v>
+        <v>0.005477225575051651</v>
       </c>
       <c r="CB20" t="n">
-        <v>64.19</v>
+        <v>64.27033333333334</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.01825741858349696</v>
+        <v>0.07179872889728833</v>
       </c>
     </row>
     <row r="21">
@@ -5718,25 +5718,25 @@
         <v>0.0201627265883991</v>
       </c>
       <c r="BW21" t="n">
-        <v>2214.5</v>
+        <v>2204.5</v>
       </c>
       <c r="BX21" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY21" s="2" t="n">
         <v>44759.1253077662</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0.271</v>
+        <v>0.2660000000000001</v>
       </c>
       <c r="CA21" t="n">
-        <v>0.01449137674618945</v>
+        <v>0.01522248790214776</v>
       </c>
       <c r="CB21" t="n">
-        <v>48.61500000000001</v>
+        <v>48.67966666666666</v>
       </c>
       <c r="CC21" t="n">
-        <v>0.01581138830084361</v>
+        <v>0.06277949002513249</v>
       </c>
     </row>
     <row r="22">
@@ -5963,10 +5963,10 @@
         <v>0.00842360566902655</v>
       </c>
       <c r="BW22" t="n">
-        <v>2306.5</v>
+        <v>2296.5</v>
       </c>
       <c r="BX22" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY22" s="2" t="n">
         <v>44759.18919665509</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="CB22" t="n">
-        <v>32.62500000000001</v>
+        <v>32.68333333333332</v>
       </c>
       <c r="CC22" t="n">
-        <v>0.01581138830084141</v>
+        <v>0.0524130368971431</v>
       </c>
     </row>
     <row r="23">
@@ -6208,10 +6208,10 @@
         <v>0.00152499135736525</v>
       </c>
       <c r="BW23" t="n">
-        <v>2396.5</v>
+        <v>2386.5</v>
       </c>
       <c r="BX23" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY23" s="2" t="n">
         <v>44759.25169665509</v>
@@ -6223,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="CB23" t="n">
-        <v>14.822</v>
+        <v>14.89666666666667</v>
       </c>
       <c r="CC23" t="n">
-        <v>0.02529822128134715</v>
+        <v>0.06794182772065453</v>
       </c>
     </row>
     <row r="24">
@@ -6453,25 +6453,25 @@
         <v>0.0021770732213712</v>
       </c>
       <c r="BW24" t="n">
-        <v>2578.5</v>
+        <v>2568.5</v>
       </c>
       <c r="BX24" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY24" s="2" t="n">
         <v>44759.37808554398</v>
       </c>
       <c r="BZ24" t="n">
-        <v>10.131</v>
+        <v>10.12866666666666</v>
       </c>
       <c r="CA24" t="n">
-        <v>0.01370320319406392</v>
+        <v>0.01279367659899015</v>
       </c>
       <c r="CB24" t="n">
-        <v>14.394</v>
+        <v>14.41533333333333</v>
       </c>
       <c r="CC24" t="n">
-        <v>0.01264911064067314</v>
+        <v>0.02224213667070224</v>
       </c>
     </row>
     <row r="25">
@@ -6698,25 +6698,25 @@
         <v>0.01517354399697</v>
       </c>
       <c r="BW25" t="n">
-        <v>2668.5</v>
+        <v>2658.5</v>
       </c>
       <c r="BX25" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY25" s="2" t="n">
         <v>44759.44058554398</v>
       </c>
       <c r="BZ25" t="n">
-        <v>10.133</v>
+        <v>10.13433333333333</v>
       </c>
       <c r="CA25" t="n">
-        <v>0.008232726023485994</v>
+        <v>0.00858359836662609</v>
       </c>
       <c r="CB25" t="n">
-        <v>31.83399999999999</v>
+        <v>31.81066666666669</v>
       </c>
       <c r="CC25" t="n">
-        <v>0.01264911064067418</v>
+        <v>0.02815392829004429</v>
       </c>
     </row>
     <row r="26">
@@ -6943,25 +6943,25 @@
         <v>0.0209224681038087</v>
       </c>
       <c r="BW26" t="n">
-        <v>2759.5</v>
+        <v>2749.5</v>
       </c>
       <c r="BX26" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY26" s="2" t="n">
         <v>44759.50377998842</v>
       </c>
       <c r="BZ26" t="n">
-        <v>10.192</v>
+        <v>10.19266666666667</v>
       </c>
       <c r="CA26" t="n">
-        <v>0.004216370213557742</v>
+        <v>0.004497764451088092</v>
       </c>
       <c r="CB26" t="n">
-        <v>47.32100000000001</v>
+        <v>47.27133333333332</v>
       </c>
       <c r="CC26" t="n">
-        <v>0.0338132124077756</v>
+        <v>0.04911164854684275</v>
       </c>
     </row>
     <row r="27">
@@ -7188,25 +7188,25 @@
         <v>0.0237688290448408</v>
       </c>
       <c r="BW27" t="n">
-        <v>2850.5</v>
+        <v>2840.5</v>
       </c>
       <c r="BX27" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY27" s="2" t="n">
         <v>44759.56697443287</v>
       </c>
       <c r="BZ27" t="n">
-        <v>10.193</v>
+        <v>10.19266666666666</v>
       </c>
       <c r="CA27" t="n">
-        <v>0.004830458915395533</v>
+        <v>0.004497764451087978</v>
       </c>
       <c r="CB27" t="n">
-        <v>62.52999999999999</v>
+        <v>62.48066666666666</v>
       </c>
       <c r="CC27" t="n">
-        <v>0.02449489742783244</v>
+        <v>0.05057826528797328</v>
       </c>
     </row>
     <row r="28">
@@ -7433,25 +7433,25 @@
         <v>0.0338806430453412</v>
       </c>
       <c r="BW28" t="n">
-        <v>2941.5</v>
+        <v>2931.5</v>
       </c>
       <c r="BX28" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY28" s="2" t="n">
         <v>44759.63016887732</v>
       </c>
       <c r="BZ28" t="n">
-        <v>10.196</v>
+        <v>10.19833333333333</v>
       </c>
       <c r="CA28" t="n">
-        <v>0.005163977794943347</v>
+        <v>0.003790490217894544</v>
       </c>
       <c r="CB28" t="n">
-        <v>77.523</v>
+        <v>77.46266666666669</v>
       </c>
       <c r="CC28" t="n">
-        <v>0.02830390628713685</v>
+        <v>0.05771113161809627</v>
       </c>
     </row>
     <row r="29">
@@ -7678,25 +7678,25 @@
         <v>0.00899328417015822</v>
       </c>
       <c r="BW29" t="n">
-        <v>3063.5</v>
+        <v>3053.5</v>
       </c>
       <c r="BX29" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY29" s="2" t="n">
         <v>44759.71489109954</v>
       </c>
       <c r="BZ29" t="n">
-        <v>10.192</v>
+        <v>10.19066666666667</v>
       </c>
       <c r="CA29" t="n">
-        <v>0.004216370213557931</v>
+        <v>0.002537081317024611</v>
       </c>
       <c r="CB29" t="n">
-        <v>92.256</v>
+        <v>92.13833333333332</v>
       </c>
       <c r="CC29" t="n">
-        <v>0.02875181153712928</v>
+        <v>0.1031264150024906</v>
       </c>
     </row>
     <row r="30">
@@ -7923,25 +7923,25 @@
         <v>0.0225116762022843</v>
       </c>
       <c r="BW30" t="n">
-        <v>3154.5</v>
+        <v>3144.5</v>
       </c>
       <c r="BX30" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY30" s="2" t="n">
         <v>44759.77808554399</v>
       </c>
       <c r="BZ30" t="n">
-        <v>10.191</v>
+        <v>10.193</v>
       </c>
       <c r="CA30" t="n">
-        <v>0.003162277660168077</v>
+        <v>0.004660915996993996</v>
       </c>
       <c r="CB30" t="n">
-        <v>79.04599999999999</v>
+        <v>79.09833333333333</v>
       </c>
       <c r="CC30" t="n">
-        <v>0.01897366596100995</v>
+        <v>0.04983305462576214</v>
       </c>
     </row>
     <row r="31">
@@ -8168,25 +8168,25 @@
         <v>0.0302800114966396</v>
       </c>
       <c r="BW31" t="n">
-        <v>3246.5</v>
+        <v>3236.5</v>
       </c>
       <c r="BX31" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY31" s="2" t="n">
         <v>44759.84197443287</v>
       </c>
       <c r="BZ31" t="n">
-        <v>10.19</v>
+        <v>10.19033333333333</v>
       </c>
       <c r="CA31" t="n">
-        <v>0</v>
+        <v>0.001825741858350175</v>
       </c>
       <c r="CB31" t="n">
-        <v>63.992</v>
+        <v>64.03333333333333</v>
       </c>
       <c r="CC31" t="n">
-        <v>0.04022160834399652</v>
+        <v>0.05548117626312351</v>
       </c>
     </row>
     <row r="32">
@@ -8413,10 +8413,10 @@
         <v>0.021881126095143</v>
       </c>
       <c r="BW32" t="n">
-        <v>3338.5</v>
+        <v>3328.5</v>
       </c>
       <c r="BX32" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY32" s="2" t="n">
         <v>44759.90586332176</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="CB32" t="n">
-        <v>48.56600000000001</v>
+        <v>48.576</v>
       </c>
       <c r="CC32" t="n">
-        <v>0.1071032731111028</v>
+        <v>0.07044684961508009</v>
       </c>
     </row>
     <row r="33">
@@ -8658,10 +8658,10 @@
         <v>0.008287300040558479</v>
       </c>
       <c r="BW33" t="n">
-        <v>3428.5</v>
+        <v>3418.5</v>
       </c>
       <c r="BX33" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY33" s="2" t="n">
         <v>44759.96836332176</v>
@@ -8670,13 +8670,13 @@
         <v>10.193</v>
       </c>
       <c r="CA33" t="n">
-        <v>0.004830458915396132</v>
+        <v>0.004660915996993951</v>
       </c>
       <c r="CB33" t="n">
-        <v>32.636</v>
+        <v>32.68399999999999</v>
       </c>
       <c r="CC33" t="n">
-        <v>0.02065591117977522</v>
+        <v>0.04709491516590049</v>
       </c>
     </row>
     <row r="34">
@@ -8903,25 +8903,25 @@
         <v>0.00146911129708374</v>
       </c>
       <c r="BW34" t="n">
-        <v>3518.5</v>
+        <v>3508.5</v>
       </c>
       <c r="BX34" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY34" s="2" t="n">
         <v>44760.03086332176</v>
       </c>
       <c r="BZ34" t="n">
-        <v>10.216</v>
+        <v>10.21766666666667</v>
       </c>
       <c r="CA34" t="n">
-        <v>0.005163977794943675</v>
+        <v>0.004301830671520795</v>
       </c>
       <c r="CB34" t="n">
-        <v>14.686</v>
+        <v>14.73933333333333</v>
       </c>
       <c r="CC34" t="n">
-        <v>0.01264911064067411</v>
+        <v>0.05271480413235319</v>
       </c>
     </row>
     <row r="35">
@@ -9148,25 +9148,25 @@
         <v>0.00107149185068248</v>
       </c>
       <c r="BW35" t="n">
-        <v>3699.5</v>
+        <v>3689.5</v>
       </c>
       <c r="BX35" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY35" s="2" t="n">
         <v>44760.1565577662</v>
       </c>
       <c r="BZ35" t="n">
-        <v>20.204</v>
+        <v>20.20633333333334</v>
       </c>
       <c r="CA35" t="n">
-        <v>0.008432740427115774</v>
+        <v>0.008502873077654871</v>
       </c>
       <c r="CB35" t="n">
-        <v>14.29</v>
+        <v>14.31833333333334</v>
       </c>
       <c r="CC35" t="n">
-        <v>0</v>
+        <v>0.02520034664968643</v>
       </c>
     </row>
     <row r="36">
@@ -9393,25 +9393,25 @@
         <v>0.0167744384150581</v>
       </c>
       <c r="BW36" t="n">
-        <v>3790.5</v>
+        <v>3780.5</v>
       </c>
       <c r="BX36" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY36" s="2" t="n">
         <v>44760.21975221065</v>
       </c>
       <c r="BZ36" t="n">
-        <v>20.191</v>
+        <v>20.189</v>
       </c>
       <c r="CA36" t="n">
-        <v>0.009944289260117688</v>
+        <v>0.009948141396330053</v>
       </c>
       <c r="CB36" t="n">
-        <v>31.63999999999999</v>
+        <v>31.62533333333333</v>
       </c>
       <c r="CC36" t="n">
-        <v>0</v>
+        <v>0.01960530071414278</v>
       </c>
     </row>
     <row r="37">
@@ -9638,25 +9638,25 @@
         <v>0.0181263629069722</v>
       </c>
       <c r="BW37" t="n">
-        <v>3881.5</v>
+        <v>3871.5</v>
       </c>
       <c r="BX37" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY37" s="2" t="n">
         <v>44760.28294665509</v>
       </c>
       <c r="BZ37" t="n">
-        <v>20.186</v>
+        <v>20.19</v>
       </c>
       <c r="CA37" t="n">
-        <v>0.008432740427115767</v>
+        <v>0.008304547985373164</v>
       </c>
       <c r="CB37" t="n">
-        <v>47.26</v>
+        <v>47.23666666666666</v>
       </c>
       <c r="CC37" t="n">
-        <v>0.01414213562373149</v>
+        <v>0.02998083679139993</v>
       </c>
     </row>
     <row r="38">
@@ -9883,25 +9883,25 @@
         <v>0.0176444642855451</v>
       </c>
       <c r="BW38" t="n">
-        <v>3972.5</v>
+        <v>3962.5</v>
       </c>
       <c r="BX38" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY38" s="2" t="n">
         <v>44760.34614109954</v>
       </c>
       <c r="BZ38" t="n">
-        <v>20.192</v>
+        <v>20.18933333333333</v>
       </c>
       <c r="CA38" t="n">
-        <v>0.01032795558988559</v>
+        <v>0.01229895799716802</v>
       </c>
       <c r="CB38" t="n">
-        <v>62.49499999999999</v>
+        <v>62.46266666666668</v>
       </c>
       <c r="CC38" t="n">
-        <v>0.01581138830084361</v>
+        <v>0.03061815253028482</v>
       </c>
     </row>
     <row r="39">
@@ -10128,25 +10128,25 @@
         <v>0.0192728560181386</v>
       </c>
       <c r="BW39" t="n">
-        <v>4064.5</v>
+        <v>4054.5</v>
       </c>
       <c r="BX39" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY39" s="2" t="n">
         <v>44760.41002998842</v>
       </c>
       <c r="BZ39" t="n">
-        <v>20.195</v>
+        <v>20.19466666666667</v>
       </c>
       <c r="CA39" t="n">
-        <v>0.007071067811864323</v>
+        <v>0.009371024061115944</v>
       </c>
       <c r="CB39" t="n">
-        <v>77.47499999999999</v>
+        <v>77.419</v>
       </c>
       <c r="CC39" t="n">
-        <v>0.01581138830084269</v>
+        <v>0.05371380096207815</v>
       </c>
     </row>
     <row r="40">
@@ -10373,25 +10373,25 @@
         <v>0.009571330948875431</v>
       </c>
       <c r="BW40" t="n">
-        <v>4244.5</v>
+        <v>4234.5</v>
       </c>
       <c r="BX40" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY40" s="2" t="n">
         <v>44760.53502998842</v>
       </c>
       <c r="BZ40" t="n">
-        <v>20.193</v>
+        <v>20.194</v>
       </c>
       <c r="CA40" t="n">
-        <v>0.01059349905471382</v>
+        <v>0.009321831993987784</v>
       </c>
       <c r="CB40" t="n">
-        <v>90.06099999999999</v>
+        <v>90.02366666666666</v>
       </c>
       <c r="CC40" t="n">
-        <v>0.01370320319406364</v>
+        <v>0.03326832741807103</v>
       </c>
     </row>
     <row r="41">
@@ -10618,25 +10618,25 @@
         <v>0.0242326448097438</v>
       </c>
       <c r="BW41" t="n">
-        <v>4334.5</v>
+        <v>4324.5</v>
       </c>
       <c r="BX41" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY41" s="2" t="n">
         <v>44760.59752998842</v>
       </c>
       <c r="BZ41" t="n">
-        <v>20.187</v>
+        <v>20.18966666666667</v>
       </c>
       <c r="CA41" t="n">
-        <v>0.01059349905471465</v>
+        <v>0.01217213701616133</v>
       </c>
       <c r="CB41" t="n">
-        <v>78.89399999999999</v>
+        <v>78.93433333333338</v>
       </c>
       <c r="CC41" t="n">
-        <v>0.009660917830799169</v>
+        <v>0.03856774901868028</v>
       </c>
     </row>
     <row r="42">
@@ -10863,25 +10863,25 @@
         <v>0.0289670432782256</v>
       </c>
       <c r="BW42" t="n">
-        <v>4426.5</v>
+        <v>4416.5</v>
       </c>
       <c r="BX42" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY42" s="2" t="n">
         <v>44760.66141887732</v>
       </c>
       <c r="BZ42" t="n">
-        <v>20.188</v>
+        <v>20.19033333333333</v>
       </c>
       <c r="CA42" t="n">
-        <v>0.009189365834726225</v>
+        <v>0.007648904962569886</v>
       </c>
       <c r="CB42" t="n">
-        <v>63.85000000000001</v>
+        <v>63.89433333333329</v>
       </c>
       <c r="CC42" t="n">
-        <v>0</v>
+        <v>0.04761072997965293</v>
       </c>
     </row>
     <row r="43">
@@ -11108,25 +11108,25 @@
         <v>0.0144204945712011</v>
       </c>
       <c r="BW43" t="n">
-        <v>4518.5</v>
+        <v>4508.5</v>
       </c>
       <c r="BX43" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY43" s="2" t="n">
         <v>44760.7253077662</v>
       </c>
       <c r="BZ43" t="n">
-        <v>20.186</v>
+        <v>20.18733333333333</v>
       </c>
       <c r="CA43" t="n">
-        <v>0.009660917830793066</v>
+        <v>0.008683449709106098</v>
       </c>
       <c r="CB43" t="n">
-        <v>48.29499999999999</v>
+        <v>48.34633333333333</v>
       </c>
       <c r="CC43" t="n">
-        <v>0.01581138830084141</v>
+        <v>0.05034250506373701</v>
       </c>
     </row>
     <row r="44">
@@ -11353,10 +11353,10 @@
         <v>0.00503138393063652</v>
       </c>
       <c r="BW44" t="n">
-        <v>4611.5</v>
+        <v>4601.5</v>
       </c>
       <c r="BX44" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY44" s="2" t="n">
         <v>44760.78989109954</v>
@@ -11365,13 +11365,13 @@
         <v>20.194</v>
       </c>
       <c r="CA44" t="n">
-        <v>0.009660917830793352</v>
+        <v>0.00723973708800555</v>
       </c>
       <c r="CB44" t="n">
-        <v>32.414</v>
+        <v>32.45766666666665</v>
       </c>
       <c r="CC44" t="n">
-        <v>0.02065591117977391</v>
+        <v>0.04149643385868435</v>
       </c>
     </row>
     <row r="45">
@@ -11598,25 +11598,25 @@
         <v>0.000831330744235239</v>
       </c>
       <c r="BW45" t="n">
-        <v>4701.5</v>
+        <v>4691.5</v>
       </c>
       <c r="BX45" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY45" s="2" t="n">
         <v>44760.85239109954</v>
       </c>
       <c r="BZ45" t="n">
-        <v>20.212</v>
+        <v>20.20433333333333</v>
       </c>
       <c r="CA45" t="n">
-        <v>0.009189365834726057</v>
+        <v>0.01165105688067721</v>
       </c>
       <c r="CB45" t="n">
-        <v>14.494</v>
+        <v>14.53666666666667</v>
       </c>
       <c r="CC45" t="n">
-        <v>0.01264911064067314</v>
+        <v>0.0407966642765303</v>
       </c>
     </row>
     <row r="46">
@@ -11843,25 +11843,25 @@
         <v>0.000646837188110678</v>
       </c>
       <c r="BW46" t="n">
-        <v>4882.5</v>
+        <v>4872.5</v>
       </c>
       <c r="BX46" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY46" s="2" t="n">
         <v>44760.97808554398</v>
       </c>
       <c r="BZ46" t="n">
-        <v>30.132</v>
+        <v>30.13133333333333</v>
       </c>
       <c r="CA46" t="n">
-        <v>0.006324555320336238</v>
+        <v>0.006814453874610844</v>
       </c>
       <c r="CB46" t="n">
-        <v>14.36</v>
+        <v>14.38400000000001</v>
       </c>
       <c r="CC46" t="n">
-        <v>0</v>
+        <v>0.01993091516489724</v>
       </c>
     </row>
     <row r="47">
@@ -12088,25 +12088,25 @@
         <v>0.00333959537278768</v>
       </c>
       <c r="BW47" t="n">
-        <v>4973.5</v>
+        <v>4963.5</v>
       </c>
       <c r="BX47" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY47" s="2" t="n">
         <v>44761.04127998843</v>
       </c>
       <c r="BZ47" t="n">
-        <v>30.11</v>
+        <v>30.10966666666668</v>
       </c>
       <c r="CA47" t="n">
-        <v>0.004714045207911835</v>
+        <v>0.004901325178535653</v>
       </c>
       <c r="CB47" t="n">
-        <v>31.59</v>
+        <v>31.57933333333334</v>
       </c>
       <c r="CC47" t="n">
-        <v>0</v>
+        <v>0.01799105780435018</v>
       </c>
     </row>
     <row r="48">
@@ -12333,25 +12333,25 @@
         <v>0.00763387812485306</v>
       </c>
       <c r="BW48" t="n">
-        <v>5063.5</v>
+        <v>5053.5</v>
       </c>
       <c r="BX48" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY48" s="2" t="n">
         <v>44761.10377998843</v>
       </c>
       <c r="BZ48" t="n">
-        <v>30.109</v>
+        <v>30.10900000000001</v>
       </c>
       <c r="CA48" t="n">
-        <v>0.003162277660168562</v>
+        <v>0.004025778999363652</v>
       </c>
       <c r="CB48" t="n">
-        <v>47.32200000000002</v>
+        <v>47.29933333333329</v>
       </c>
       <c r="CC48" t="n">
-        <v>0.0154919333848306</v>
+        <v>0.025587353197982</v>
       </c>
     </row>
     <row r="49">
@@ -12578,25 +12578,25 @@
         <v>0.0179911216107671</v>
       </c>
       <c r="BW49" t="n">
-        <v>5155.5</v>
+        <v>5145.5</v>
       </c>
       <c r="BX49" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY49" s="2" t="n">
         <v>44761.16766887732</v>
       </c>
       <c r="BZ49" t="n">
-        <v>30.118</v>
+        <v>30.11966666666667</v>
       </c>
       <c r="CA49" t="n">
-        <v>0.004216370213558408</v>
+        <v>0.004138409933974223</v>
       </c>
       <c r="CB49" t="n">
-        <v>62.64899999999999</v>
+        <v>62.61500000000003</v>
       </c>
       <c r="CC49" t="n">
-        <v>0.020248456731319</v>
+        <v>0.03617486267638788</v>
       </c>
     </row>
     <row r="50">
@@ -12823,25 +12823,25 @@
         <v>0.0144674279942709</v>
       </c>
       <c r="BW50" t="n">
-        <v>5246.5</v>
+        <v>5236.5</v>
       </c>
       <c r="BX50" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY50" s="2" t="n">
         <v>44761.23086332176</v>
       </c>
       <c r="BZ50" t="n">
-        <v>30.128</v>
+        <v>30.12966666666667</v>
       </c>
       <c r="CA50" t="n">
-        <v>0.004216370213556288</v>
+        <v>0.008087168778414752</v>
       </c>
       <c r="CB50" t="n">
-        <v>77.69500000000002</v>
+        <v>77.64966666666668</v>
       </c>
       <c r="CC50" t="n">
-        <v>0.01581138830083665</v>
+        <v>0.04452688713755153</v>
       </c>
     </row>
     <row r="51">
@@ -13068,25 +13068,25 @@
         <v>0.008934849454680821</v>
       </c>
       <c r="BW51" t="n">
-        <v>5427.5</v>
+        <v>5417.5</v>
       </c>
       <c r="BX51" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY51" s="2" t="n">
         <v>44761.3565577662</v>
       </c>
       <c r="BZ51" t="n">
-        <v>30.11</v>
+        <v>30.10733333333335</v>
       </c>
       <c r="CA51" t="n">
-        <v>0.006666666666666831</v>
+        <v>0.005832922809855636</v>
       </c>
       <c r="CB51" t="n">
-        <v>93.152</v>
+        <v>93.10333333333334</v>
       </c>
       <c r="CC51" t="n">
-        <v>0.01686548085423636</v>
+        <v>0.04808995402535549</v>
       </c>
     </row>
     <row r="52">
@@ -13313,25 +13313,25 @@
         <v>0.0129186255364118</v>
       </c>
       <c r="BW52" t="n">
-        <v>5517.5</v>
+        <v>5507.5</v>
       </c>
       <c r="BX52" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY52" s="2" t="n">
         <v>44761.4190577662</v>
       </c>
       <c r="BZ52" t="n">
-        <v>30.103</v>
+        <v>30.10300000000001</v>
       </c>
       <c r="CA52" t="n">
-        <v>0.004830458915395456</v>
+        <v>0.004660915996992952</v>
       </c>
       <c r="CB52" t="n">
-        <v>79.32199999999997</v>
+        <v>79.37633333333329</v>
       </c>
       <c r="CC52" t="n">
-        <v>0.01032795558988663</v>
+        <v>0.04874163647681311</v>
       </c>
     </row>
     <row r="53">
@@ -13558,25 +13558,25 @@
         <v>0.0150672606362789</v>
       </c>
       <c r="BW53" t="n">
-        <v>5609.5</v>
+        <v>5599.5</v>
       </c>
       <c r="BX53" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY53" s="2" t="n">
         <v>44761.48294665509</v>
       </c>
       <c r="BZ53" t="n">
-        <v>30.1</v>
+        <v>30.10000000000002</v>
       </c>
       <c r="CA53" t="n">
-        <v>0</v>
+        <v>0.002626128657194991</v>
       </c>
       <c r="CB53" t="n">
-        <v>64.00399999999999</v>
+        <v>64.05699999999999</v>
       </c>
       <c r="CC53" t="n">
-        <v>0.01897366596101557</v>
+        <v>0.04771683719321924</v>
       </c>
     </row>
     <row r="54">
@@ -13803,25 +13803,25 @@
         <v>0.0129115200755056</v>
       </c>
       <c r="BW54" t="n">
-        <v>5699.5</v>
+        <v>5689.5</v>
       </c>
       <c r="BX54" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY54" s="2" t="n">
         <v>44761.54544665509</v>
       </c>
       <c r="BZ54" t="n">
-        <v>30.1</v>
+        <v>30.09800000000001</v>
       </c>
       <c r="CA54" t="n">
-        <v>0.004714045207910035</v>
+        <v>0.007143842296595352</v>
       </c>
       <c r="CB54" t="n">
-        <v>48.32899999999999</v>
+        <v>48.37433333333332</v>
       </c>
       <c r="CC54" t="n">
-        <v>0.0144913767461897</v>
+        <v>0.04182750566176841</v>
       </c>
     </row>
     <row r="55">
@@ -14048,25 +14048,25 @@
         <v>0.00341083895750232</v>
       </c>
       <c r="BW55" t="n">
-        <v>5789.5</v>
+        <v>5779.5</v>
       </c>
       <c r="BX55" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY55" s="2" t="n">
         <v>44761.60794665509</v>
       </c>
       <c r="BZ55" t="n">
-        <v>30.103</v>
+        <v>30.10300000000001</v>
       </c>
       <c r="CA55" t="n">
-        <v>0.004830458915395049</v>
+        <v>0.004660915996992109</v>
       </c>
       <c r="CB55" t="n">
-        <v>32.276</v>
+        <v>32.31399999999999</v>
       </c>
       <c r="CC55" t="n">
-        <v>0.01264911064067362</v>
+        <v>0.03710190997964806</v>
       </c>
     </row>
     <row r="56">
@@ -14293,25 +14293,25 @@
         <v>0.00057488439792961</v>
       </c>
       <c r="BW56" t="n">
-        <v>5880.5</v>
+        <v>5870.5</v>
       </c>
       <c r="BX56" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY56" s="2" t="n">
         <v>44761.67114109953</v>
       </c>
       <c r="BZ56" t="n">
-        <v>30.129</v>
+        <v>30.12933333333333</v>
       </c>
       <c r="CA56" t="n">
-        <v>0.003162277660167683</v>
+        <v>0.005832922809855997</v>
       </c>
       <c r="CB56" t="n">
-        <v>14.496</v>
+        <v>14.533</v>
       </c>
       <c r="CC56" t="n">
-        <v>0.02065591117977273</v>
+        <v>0.03860945033501948</v>
       </c>
     </row>
     <row r="57">
@@ -14538,25 +14538,25 @@
         <v>0.000655318745442699</v>
       </c>
       <c r="BW57" t="n">
-        <v>6061.5</v>
+        <v>6051.5</v>
       </c>
       <c r="BX57" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY57" s="2" t="n">
         <v>44761.79683554398</v>
       </c>
       <c r="BZ57" t="n">
-        <v>40.13699999999999</v>
+        <v>40.12800000000001</v>
       </c>
       <c r="CA57" t="n">
-        <v>0.01702938636592431</v>
+        <v>0.01494818637367205</v>
       </c>
       <c r="CB57" t="n">
-        <v>14.424</v>
+        <v>14.44800000000001</v>
       </c>
       <c r="CC57" t="n">
-        <v>0.0126491106406735</v>
+        <v>0.01864366398797595</v>
       </c>
     </row>
     <row r="58">
@@ -14783,25 +14783,25 @@
         <v>0.00335584186171879</v>
       </c>
       <c r="BW58" t="n">
-        <v>6152.5</v>
+        <v>6142.5</v>
       </c>
       <c r="BX58" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY58" s="2" t="n">
         <v>44761.86002998843</v>
       </c>
       <c r="BZ58" t="n">
-        <v>40.11000000000001</v>
+        <v>40.10999999999999</v>
       </c>
       <c r="CA58" t="n">
         <v>0</v>
       </c>
       <c r="CB58" t="n">
-        <v>31.484</v>
+        <v>31.48466666666668</v>
       </c>
       <c r="CC58" t="n">
-        <v>0.00966091783079193</v>
+        <v>0.008995528902175445</v>
       </c>
     </row>
     <row r="59">
@@ -15028,25 +15028,25 @@
         <v>0.0116282408980297</v>
       </c>
       <c r="BW59" t="n">
-        <v>6243.5</v>
+        <v>6233.5</v>
       </c>
       <c r="BX59" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY59" s="2" t="n">
         <v>44761.92322443287</v>
       </c>
       <c r="BZ59" t="n">
-        <v>40.11000000000001</v>
+        <v>40.11133333333332</v>
       </c>
       <c r="CA59" t="n">
-        <v>0</v>
+        <v>0.004341724854549186</v>
       </c>
       <c r="CB59" t="n">
-        <v>47.294</v>
+        <v>47.27166666666665</v>
       </c>
       <c r="CC59" t="n">
-        <v>0.01264911064067282</v>
+        <v>0.02436551171060762</v>
       </c>
     </row>
     <row r="60">
@@ -15273,25 +15273,25 @@
         <v>0.0121852879214425</v>
       </c>
       <c r="BW60" t="n">
-        <v>6334.5</v>
+        <v>6324.5</v>
       </c>
       <c r="BX60" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY60" s="2" t="n">
         <v>44761.98641887731</v>
       </c>
       <c r="BZ60" t="n">
-        <v>40.114</v>
+        <v>40.11833333333332</v>
       </c>
       <c r="CA60" t="n">
-        <v>0.01429840705968395</v>
+        <v>0.008742813140470906</v>
       </c>
       <c r="CB60" t="n">
-        <v>62.754</v>
+        <v>62.71533333333334</v>
       </c>
       <c r="CC60" t="n">
-        <v>0.0126491106406743</v>
+        <v>0.03481313003722177</v>
       </c>
     </row>
     <row r="61">
@@ -15518,25 +15518,25 @@
         <v>0.009056120063992871</v>
       </c>
       <c r="BW61" t="n">
-        <v>6425.5</v>
+        <v>6415.5</v>
       </c>
       <c r="BX61" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY61" s="2" t="n">
         <v>44762.04961332176</v>
       </c>
       <c r="BZ61" t="n">
-        <v>40.131</v>
+        <v>40.14066666666665</v>
       </c>
       <c r="CA61" t="n">
-        <v>0.01449137674618674</v>
+        <v>0.01142692927446552</v>
       </c>
       <c r="CB61" t="n">
-        <v>77.989</v>
+        <v>77.94000000000003</v>
       </c>
       <c r="CC61" t="n">
-        <v>0.01449137674619186</v>
+        <v>0.04941031582924394</v>
       </c>
     </row>
     <row r="62">
@@ -15763,25 +15763,25 @@
         <v>0.00896775163315265</v>
       </c>
       <c r="BW62" t="n">
-        <v>6607.5</v>
+        <v>6597.5</v>
       </c>
       <c r="BX62" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY62" s="2" t="n">
         <v>44762.17600221065</v>
       </c>
       <c r="BZ62" t="n">
-        <v>40.121</v>
+        <v>40.12033333333332</v>
       </c>
       <c r="CA62" t="n">
-        <v>0.011005049346146</v>
+        <v>0.007648904962570554</v>
       </c>
       <c r="CB62" t="n">
-        <v>93.233</v>
+        <v>93.18300000000004</v>
       </c>
       <c r="CC62" t="n">
-        <v>0.01702938636592721</v>
+        <v>0.04639782991358338</v>
       </c>
     </row>
     <row r="63">
@@ -16008,25 +16008,25 @@
         <v>0.0122008364294054</v>
       </c>
       <c r="BW63" t="n">
-        <v>6699.5</v>
+        <v>6689.5</v>
       </c>
       <c r="BX63" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY63" s="2" t="n">
         <v>44762.23989109954</v>
       </c>
       <c r="BZ63" t="n">
-        <v>40.11000000000001</v>
+        <v>40.10899999999999</v>
       </c>
       <c r="CA63" t="n">
-        <v>0</v>
+        <v>0.005477225575052449</v>
       </c>
       <c r="CB63" t="n">
-        <v>79.59800000000001</v>
+        <v>79.633</v>
       </c>
       <c r="CC63" t="n">
-        <v>0.01032795558987906</v>
+        <v>0.03611762393376009</v>
       </c>
     </row>
     <row r="64">
@@ -16253,25 +16253,25 @@
         <v>0.0126334472046245</v>
       </c>
       <c r="BW64" t="n">
-        <v>6791.5</v>
+        <v>6781.5</v>
       </c>
       <c r="BX64" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY64" s="2" t="n">
         <v>44762.30377998843</v>
       </c>
       <c r="BZ64" t="n">
-        <v>40.087</v>
+        <v>40.085</v>
       </c>
       <c r="CA64" t="n">
-        <v>0.01251665557034791</v>
+        <v>0.0104221250066942</v>
       </c>
       <c r="CB64" t="n">
-        <v>64.13399999999999</v>
+        <v>64.19100000000003</v>
       </c>
       <c r="CC64" t="n">
-        <v>0.018973665961012</v>
+        <v>0.05114886994403656</v>
       </c>
     </row>
     <row r="65">
@@ -16498,25 +16498,25 @@
         <v>0.00730693608837637</v>
       </c>
       <c r="BW65" t="n">
-        <v>6883.5</v>
+        <v>6873.5</v>
       </c>
       <c r="BX65" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY65" s="2" t="n">
         <v>44762.36766887731</v>
       </c>
       <c r="BZ65" t="n">
-        <v>40.07999999999999</v>
+        <v>40.07966666666667</v>
       </c>
       <c r="CA65" t="n">
-        <v>0</v>
+        <v>0.001825741858348666</v>
       </c>
       <c r="CB65" t="n">
-        <v>48.27499999999999</v>
+        <v>48.317</v>
       </c>
       <c r="CC65" t="n">
-        <v>0.01581138830084361</v>
+        <v>0.04111799673102833</v>
       </c>
     </row>
     <row r="66">
@@ -16743,25 +16743,25 @@
         <v>0.00401133638645595</v>
       </c>
       <c r="BW66" t="n">
-        <v>6973.5</v>
+        <v>6963.5</v>
       </c>
       <c r="BX66" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY66" s="2" t="n">
         <v>44762.43016887731</v>
       </c>
       <c r="BZ66" t="n">
-        <v>40.07999999999999</v>
+        <v>40.081</v>
       </c>
       <c r="CA66" t="n">
-        <v>0</v>
+        <v>0.005477225575052717</v>
       </c>
       <c r="CB66" t="n">
-        <v>32.08799999999999</v>
+        <v>32.12933333333334</v>
       </c>
       <c r="CC66" t="n">
-        <v>0.01686548085423085</v>
+        <v>0.03741042942663535</v>
       </c>
     </row>
     <row r="67">
@@ -16988,25 +16988,25 @@
         <v>0.00100466147601171</v>
       </c>
       <c r="BW67" t="n">
-        <v>7063.5</v>
+        <v>7053.5</v>
       </c>
       <c r="BX67" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY67" s="2" t="n">
         <v>44762.49266887731</v>
       </c>
       <c r="BZ67" t="n">
-        <v>40.123</v>
+        <v>40.12166666666666</v>
       </c>
       <c r="CA67" t="n">
-        <v>0.009486832980506092</v>
+        <v>0.006477192523656866</v>
       </c>
       <c r="CB67" t="n">
-        <v>14.544</v>
+        <v>14.57600000000001</v>
       </c>
       <c r="CC67" t="n">
-        <v>0.01264911064067361</v>
+        <v>0.03035423051808261</v>
       </c>
     </row>
     <row r="68">
@@ -17233,25 +17233,25 @@
         <v>0.000492324215734649</v>
       </c>
       <c r="BW68" t="n">
-        <v>7245.5</v>
+        <v>7235.5</v>
       </c>
       <c r="BX68" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY68" s="2" t="n">
         <v>44762.61905776621</v>
       </c>
       <c r="BZ68" t="n">
-        <v>20.267</v>
+        <v>20.371</v>
       </c>
       <c r="CA68" t="n">
-        <v>0.01828782229912881</v>
+        <v>0.09488105075884959</v>
       </c>
       <c r="CB68" t="n">
-        <v>13.883</v>
+        <v>13.79233333333334</v>
       </c>
       <c r="CC68" t="n">
-        <v>0.02496664441476605</v>
+        <v>0.08645043759819615</v>
       </c>
     </row>
     <row r="69">
@@ -17478,25 +17478,25 @@
         <v>0.00475645861646699</v>
       </c>
       <c r="BW69" t="n">
-        <v>7336.5</v>
+        <v>7326.5</v>
       </c>
       <c r="BX69" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY69" s="2" t="n">
         <v>44762.68225221064</v>
       </c>
       <c r="BZ69" t="n">
-        <v>20.192</v>
+        <v>20.19466666666667</v>
       </c>
       <c r="CA69" t="n">
-        <v>0.006324555320335954</v>
+        <v>0.006814453874610251</v>
       </c>
       <c r="CB69" t="n">
-        <v>30.504</v>
+        <v>30.39233333333333</v>
       </c>
       <c r="CC69" t="n">
-        <v>0.03502380143083577</v>
+        <v>0.1090929162128191</v>
       </c>
     </row>
     <row r="70">
@@ -17723,25 +17723,25 @@
         <v>0.00903425121057712</v>
       </c>
       <c r="BW70" t="n">
-        <v>7428.5</v>
+        <v>7418.5</v>
       </c>
       <c r="BX70" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY70" s="2" t="n">
         <v>44762.74614109954</v>
       </c>
       <c r="BZ70" t="n">
-        <v>20.186</v>
+        <v>20.18866666666667</v>
       </c>
       <c r="CA70" t="n">
-        <v>0.008432740427115337</v>
+        <v>0.00899552890217664</v>
       </c>
       <c r="CB70" t="n">
-        <v>45.93</v>
+        <v>45.79966666666668</v>
       </c>
       <c r="CC70" t="n">
-        <v>0.03231786571610813</v>
+        <v>0.1274547474348392</v>
       </c>
     </row>
     <row r="71">
@@ -17968,25 +17968,25 @@
         <v>0.0189592297642696</v>
       </c>
       <c r="BW71" t="n">
-        <v>7521.5</v>
+        <v>7511.5</v>
       </c>
       <c r="BX71" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY71" s="2" t="n">
         <v>44762.81072443287</v>
       </c>
       <c r="BZ71" t="n">
-        <v>20.199</v>
+        <v>20.20033333333333</v>
       </c>
       <c r="CA71" t="n">
-        <v>0.007378647873725856</v>
+        <v>0.008899179866641675</v>
       </c>
       <c r="CB71" t="n">
-        <v>61.27700000000001</v>
+        <v>61.11566666666667</v>
       </c>
       <c r="CC71" t="n">
-        <v>0.03591656999213301</v>
+        <v>0.1499122348606647</v>
       </c>
     </row>
     <row r="72">
@@ -18213,25 +18213,25 @@
         <v>0.0155031977365252</v>
       </c>
       <c r="BW72" t="n">
-        <v>7611.5</v>
+        <v>7601.5</v>
       </c>
       <c r="BX72" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY72" s="2" t="n">
         <v>44762.87322443287</v>
       </c>
       <c r="BZ72" t="n">
-        <v>20.215</v>
+        <v>20.21866666666667</v>
       </c>
       <c r="CA72" t="n">
-        <v>0.005270462766945867</v>
+        <v>0.00571346463723212</v>
       </c>
       <c r="CB72" t="n">
-        <v>76.41</v>
+        <v>76.13366666666667</v>
       </c>
       <c r="CC72" t="n">
-        <v>0.06110100926607535</v>
+        <v>0.2582765603170237</v>
       </c>
     </row>
     <row r="73">
@@ -18458,25 +18458,25 @@
         <v>0.0049638874654986</v>
       </c>
       <c r="BW73" t="n">
-        <v>7791.5</v>
+        <v>7781.5</v>
       </c>
       <c r="BX73" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY73" s="2" t="n">
         <v>44762.99822443287</v>
       </c>
       <c r="BZ73" t="n">
-        <v>20.221</v>
+        <v>20.21733333333334</v>
       </c>
       <c r="CA73" t="n">
-        <v>0.005676462121976244</v>
+        <v>0.007396799556440398</v>
       </c>
       <c r="CB73" t="n">
-        <v>90.28200000000001</v>
+        <v>90.066</v>
       </c>
       <c r="CC73" t="n">
-        <v>0.06494442068243786</v>
+        <v>0.1939534249104265</v>
       </c>
     </row>
     <row r="74">
@@ -18703,25 +18703,25 @@
         <v>0.0174102914835116</v>
       </c>
       <c r="BW74" t="n">
-        <v>7881.5</v>
+        <v>7871.5</v>
       </c>
       <c r="BX74" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY74" s="2" t="n">
         <v>44763.06072443287</v>
       </c>
       <c r="BZ74" t="n">
-        <v>20.132</v>
+        <v>20.128</v>
       </c>
       <c r="CA74" t="n">
-        <v>0.009189365834726466</v>
+        <v>0.01186126701378905</v>
       </c>
       <c r="CB74" t="n">
-        <v>80.074</v>
+        <v>80.40233333333335</v>
       </c>
       <c r="CC74" t="n">
-        <v>0.07919034733546126</v>
+        <v>0.3136073025774196</v>
       </c>
     </row>
     <row r="75">
@@ -18948,25 +18948,25 @@
         <v>0.0161950687766729</v>
       </c>
       <c r="BW75" t="n">
-        <v>7972.5</v>
+        <v>7962.5</v>
       </c>
       <c r="BX75" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY75" s="2" t="n">
         <v>44763.12391887732</v>
       </c>
       <c r="BZ75" t="n">
-        <v>20.126</v>
+        <v>20.12333333333333</v>
       </c>
       <c r="CA75" t="n">
-        <v>0.006992058987800667</v>
+        <v>0.008840866447368839</v>
       </c>
       <c r="CB75" t="n">
-        <v>64.953</v>
+        <v>65.19766666666668</v>
       </c>
       <c r="CC75" t="n">
-        <v>0.05774464862170806</v>
+        <v>0.2295375160281543</v>
       </c>
     </row>
     <row r="76">
@@ -19193,25 +19193,25 @@
         <v>0.00714137340095897</v>
       </c>
       <c r="BW76" t="n">
-        <v>8063.5</v>
+        <v>8053.5</v>
       </c>
       <c r="BX76" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY76" s="2" t="n">
         <v>44763.18711332176</v>
       </c>
       <c r="BZ76" t="n">
-        <v>20.121</v>
+        <v>20.111</v>
       </c>
       <c r="CA76" t="n">
-        <v>0.01197218999737799</v>
+        <v>0.01295882072114331</v>
       </c>
       <c r="CB76" t="n">
-        <v>49.22799999999999</v>
+        <v>49.43133333333335</v>
       </c>
       <c r="CC76" t="n">
-        <v>0.05138093031466348</v>
+        <v>0.1940091240892719</v>
       </c>
     </row>
     <row r="77">
@@ -19438,25 +19438,25 @@
         <v>0.00514794685606825</v>
       </c>
       <c r="BW77" t="n">
-        <v>8154.5</v>
+        <v>8144.5</v>
       </c>
       <c r="BX77" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY77" s="2" t="n">
         <v>44763.2503077662</v>
       </c>
       <c r="BZ77" t="n">
-        <v>20.094</v>
+        <v>20.09466666666668</v>
       </c>
       <c r="CA77" t="n">
-        <v>0.005163977794944137</v>
+        <v>0.008193072487267727</v>
       </c>
       <c r="CB77" t="n">
-        <v>33.399</v>
+        <v>33.56466666666667</v>
       </c>
       <c r="CC77" t="n">
-        <v>0.04148627617792706</v>
+        <v>0.1515149550677967</v>
       </c>
     </row>
     <row r="78">
@@ -19683,25 +19683,25 @@
         <v>0.000582871752086893</v>
       </c>
       <c r="BW78" t="n">
-        <v>8245.5</v>
+        <v>8235.5</v>
       </c>
       <c r="BX78" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY78" s="2" t="n">
         <v>44763.31350221065</v>
       </c>
       <c r="BZ78" t="n">
-        <v>20.092</v>
+        <v>20.09</v>
       </c>
       <c r="CA78" t="n">
-        <v>0.00632455532033763</v>
+        <v>0.009826073688809269</v>
       </c>
       <c r="CB78" t="n">
-        <v>15.952</v>
+        <v>16.168</v>
       </c>
       <c r="CC78" t="n">
-        <v>0.05349974039397097</v>
+        <v>0.2003169901723883</v>
       </c>
     </row>
     <row r="79">
@@ -19928,25 +19928,25 @@
         <v>0.000691880543981738</v>
       </c>
       <c r="BW79" t="n">
-        <v>8425.5</v>
+        <v>8415.5</v>
       </c>
       <c r="BX79" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY79" s="2" t="n">
         <v>44763.43850221065</v>
       </c>
       <c r="BZ79" t="n">
-        <v>20.123</v>
+        <v>20.12133333333333</v>
       </c>
       <c r="CA79" t="n">
-        <v>0.01059349905471381</v>
+        <v>0.01008013865987561</v>
       </c>
       <c r="CB79" t="n">
-        <v>14.867</v>
+        <v>14.90066666666666</v>
       </c>
       <c r="CC79" t="n">
-        <v>0.009486832980504905</v>
+        <v>0.02638355461311141</v>
       </c>
     </row>
     <row r="80">
@@ -20173,10 +20173,10 @@
         <v>0.00780467478148381</v>
       </c>
       <c r="BW80" t="n">
-        <v>8517.5</v>
+        <v>8507.5</v>
       </c>
       <c r="BX80" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY80" s="2" t="n">
         <v>44763.50239109954</v>
@@ -20185,13 +20185,13 @@
         <v>20.14</v>
       </c>
       <c r="CA80" t="n">
-        <v>0.01563471919941107</v>
+        <v>0.01389616667559332</v>
       </c>
       <c r="CB80" t="n">
-        <v>31.192</v>
+        <v>31.099</v>
       </c>
       <c r="CC80" t="n">
-        <v>0.02347575581554539</v>
+        <v>0.09124994095416286</v>
       </c>
     </row>
     <row r="81">
@@ -20418,25 +20418,25 @@
         <v>0.0258870017077982</v>
       </c>
       <c r="BW81" t="n">
-        <v>8670.5</v>
+        <v>8660.5</v>
       </c>
       <c r="BX81" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY81" s="2" t="n">
         <v>44763.60864109953</v>
       </c>
       <c r="BZ81" t="n">
-        <v>20.157</v>
+        <v>20.15333333333333</v>
       </c>
       <c r="CA81" t="n">
-        <v>0.0125166555703467</v>
+        <v>0.01241059984471968</v>
       </c>
       <c r="CB81" t="n">
-        <v>46.84400000000001</v>
+        <v>46.81866666666666</v>
       </c>
       <c r="CC81" t="n">
-        <v>0.0126491106406743</v>
+        <v>0.02515240899319593</v>
       </c>
     </row>
     <row r="82">
@@ -20663,25 +20663,25 @@
         <v>0.0316631299426245</v>
       </c>
       <c r="BW82" t="n">
-        <v>8762.5</v>
+        <v>8752.5</v>
       </c>
       <c r="BX82" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY82" s="2" t="n">
         <v>44763.67252998843</v>
       </c>
       <c r="BZ82" t="n">
-        <v>20.184</v>
+        <v>20.19233333333333</v>
       </c>
       <c r="CA82" t="n">
-        <v>0.00699205898780161</v>
+        <v>0.008976341829702928</v>
       </c>
       <c r="CB82" t="n">
-        <v>61.69199999999999</v>
+        <v>61.52266666666667</v>
       </c>
       <c r="CC82" t="n">
-        <v>0.02250925735484354</v>
+        <v>0.1548955896020336</v>
       </c>
     </row>
     <row r="83">
@@ -20908,25 +20908,25 @@
         <v>0.032408821672357</v>
       </c>
       <c r="BW83" t="n">
-        <v>8854.5</v>
+        <v>8844.5</v>
       </c>
       <c r="BX83" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY83" s="2" t="n">
         <v>44763.73641887731</v>
       </c>
       <c r="BZ83" t="n">
-        <v>20.212</v>
+        <v>20.215</v>
       </c>
       <c r="CA83" t="n">
-        <v>0.00421637021355697</v>
+        <v>0.005085476277154936</v>
       </c>
       <c r="CB83" t="n">
-        <v>76.57899999999998</v>
+        <v>76.31266666666667</v>
       </c>
       <c r="CC83" t="n">
-        <v>0.06983313444681204</v>
+        <v>0.2468132524991091</v>
       </c>
     </row>
     <row r="84">
@@ -21153,25 +21153,25 @@
         <v>0.00753927281274647</v>
       </c>
       <c r="BW84" t="n">
-        <v>8974.5</v>
+        <v>8964.5</v>
       </c>
       <c r="BX84" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY84" s="2" t="n">
         <v>44763.81975221065</v>
       </c>
       <c r="BZ84" t="n">
-        <v>20.229</v>
+        <v>20.22800000000001</v>
       </c>
       <c r="CA84" t="n">
-        <v>0.003162277660168686</v>
+        <v>0.004068381021725659</v>
       </c>
       <c r="CB84" t="n">
-        <v>88.79899999999999</v>
+        <v>88.37533333333334</v>
       </c>
       <c r="CC84" t="n">
-        <v>0.1154171179293273</v>
+        <v>0.3854038037617389</v>
       </c>
     </row>
     <row r="85">
@@ -21398,25 +21398,25 @@
         <v>0.0398908272762644</v>
       </c>
       <c r="BW85" t="n">
-        <v>9065.5</v>
+        <v>9055.5</v>
       </c>
       <c r="BX85" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY85" s="2" t="n">
         <v>44763.8829466551</v>
       </c>
       <c r="BZ85" t="n">
-        <v>20.141</v>
+        <v>20.13466666666666</v>
       </c>
       <c r="CA85" t="n">
-        <v>0.01449137674619013</v>
+        <v>0.01252124631158533</v>
       </c>
       <c r="CB85" t="n">
-        <v>79.50900000000001</v>
+        <v>79.77099999999999</v>
       </c>
       <c r="CC85" t="n">
-        <v>0.04909175083453728</v>
+        <v>0.2481288597372176</v>
       </c>
     </row>
     <row r="86">
@@ -21643,25 +21643,25 @@
         <v>0.0275993843498875</v>
       </c>
       <c r="BW86" t="n">
-        <v>9155.5</v>
+        <v>9145.5</v>
       </c>
       <c r="BX86" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY86" s="2" t="n">
         <v>44763.9454466551</v>
       </c>
       <c r="BZ86" t="n">
-        <v>20.129</v>
+        <v>20.12433333333333</v>
       </c>
       <c r="CA86" t="n">
-        <v>0.007378647873726751</v>
+        <v>0.01135123670410602</v>
       </c>
       <c r="CB86" t="n">
-        <v>64.753</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="CC86" t="n">
-        <v>0.05888784066151895</v>
+        <v>0.2231900380918682</v>
       </c>
     </row>
     <row r="87">
@@ -21888,25 +21888,25 @@
         <v>0.020485891640412</v>
       </c>
       <c r="BW87" t="n">
-        <v>9245.5</v>
+        <v>9235.5</v>
       </c>
       <c r="BX87" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY87" s="2" t="n">
         <v>44764.0079466551</v>
       </c>
       <c r="BZ87" t="n">
-        <v>20.118</v>
+        <v>20.10966666666667</v>
       </c>
       <c r="CA87" t="n">
-        <v>0.0139841179756025</v>
+        <v>0.01325696520463009</v>
       </c>
       <c r="CB87" t="n">
-        <v>49.182</v>
+        <v>49.39400000000001</v>
       </c>
       <c r="CC87" t="n">
-        <v>0.04289522117905488</v>
+        <v>0.1966197099601888</v>
       </c>
     </row>
     <row r="88">
@@ -22133,25 +22133,25 @@
         <v>0.0052275755278891</v>
       </c>
       <c r="BW88" t="n">
-        <v>9335.5</v>
+        <v>9325.5</v>
       </c>
       <c r="BX88" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY88" s="2" t="n">
         <v>44764.0704466551</v>
       </c>
       <c r="BZ88" t="n">
-        <v>20.099</v>
+        <v>20.09500000000001</v>
       </c>
       <c r="CA88" t="n">
-        <v>0.01100504934614647</v>
+        <v>0.008610338613231286</v>
       </c>
       <c r="CB88" t="n">
-        <v>33.422</v>
+        <v>33.59233333333334</v>
       </c>
       <c r="CC88" t="n">
-        <v>0.04211096452627514</v>
+        <v>0.1568808758115654</v>
       </c>
     </row>
     <row r="89">
@@ -22378,25 +22378,25 @@
         <v>0.000828404009296152</v>
       </c>
       <c r="BW89" t="n">
-        <v>9426.5</v>
+        <v>9416.5</v>
       </c>
       <c r="BX89" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY89" s="2" t="n">
         <v>44764.13364109954</v>
       </c>
       <c r="BZ89" t="n">
-        <v>20.088</v>
+        <v>20.08633333333334</v>
       </c>
       <c r="CA89" t="n">
-        <v>0.009189365834727552</v>
+        <v>0.0118854687672018</v>
       </c>
       <c r="CB89" t="n">
-        <v>15.968</v>
+        <v>16.19433333333333</v>
       </c>
       <c r="CC89" t="n">
-        <v>0.05349974039397004</v>
+        <v>0.2126626490450335</v>
       </c>
     </row>
     <row r="90">
@@ -22623,25 +22623,25 @@
         <v>0.0028333772955469</v>
       </c>
       <c r="BW90" t="n">
-        <v>9787.5</v>
+        <v>9777.5</v>
       </c>
       <c r="BX90" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY90" s="2" t="n">
         <v>44764.38433554398</v>
       </c>
       <c r="BZ90" t="n">
-        <v>0.2</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="CA90" t="n">
         <v>0</v>
       </c>
       <c r="CB90" t="n">
-        <v>14.446</v>
+        <v>14.426</v>
       </c>
       <c r="CC90" t="n">
-        <v>0.01264911064067314</v>
+        <v>0.01993091516489654</v>
       </c>
     </row>
     <row r="91">
@@ -22868,25 +22868,25 @@
         <v>0.0148347686073546</v>
       </c>
       <c r="BW91" t="n">
-        <v>9879.5</v>
+        <v>9869.5</v>
       </c>
       <c r="BX91" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY91" s="2" t="n">
         <v>44764.44822443287</v>
       </c>
       <c r="BZ91" t="n">
-        <v>0.23</v>
+        <v>0.2300000000000002</v>
       </c>
       <c r="CA91" t="n">
         <v>0</v>
       </c>
       <c r="CB91" t="n">
-        <v>28.065</v>
+        <v>27.38866666666667</v>
       </c>
       <c r="CC91" t="n">
-        <v>0.1636561435856703</v>
+        <v>0.6235368160097216</v>
       </c>
     </row>
     <row r="92">
@@ -23113,25 +23113,25 @@
         <v>0.0255815443061462</v>
       </c>
       <c r="BW92" t="n">
-        <v>9971.5</v>
+        <v>9961.5</v>
       </c>
       <c r="BX92" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY92" s="2" t="n">
         <v>44764.51211332176</v>
       </c>
       <c r="BZ92" t="n">
-        <v>0.242</v>
+        <v>0.2473333333333334</v>
       </c>
       <c r="CA92" t="n">
-        <v>0.01032795558988644</v>
+        <v>0.006914918072835195</v>
       </c>
       <c r="CB92" t="n">
-        <v>43.035</v>
+        <v>42.33466666666666</v>
       </c>
       <c r="CC92" t="n">
-        <v>0.1819798523646655</v>
+        <v>0.6449685014139022</v>
       </c>
     </row>
     <row r="93">
@@ -23358,10 +23358,10 @@
         <v>0.039476763915676</v>
       </c>
       <c r="BW93" t="n">
-        <v>10063.5</v>
+        <v>10053.5</v>
       </c>
       <c r="BX93" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY93" s="2" t="n">
         <v>44764.57600221065</v>
@@ -23373,10 +23373,10 @@
         <v>0</v>
       </c>
       <c r="CB93" t="n">
-        <v>57.72000000000001</v>
+        <v>56.952</v>
       </c>
       <c r="CC93" t="n">
-        <v>0.1749285568453557</v>
+        <v>0.7021759284415497</v>
       </c>
     </row>
     <row r="94">
@@ -23603,25 +23603,25 @@
         <v>0.0326753170470097</v>
       </c>
       <c r="BW94" t="n">
-        <v>10155.5</v>
+        <v>10145.5</v>
       </c>
       <c r="BX94" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY94" s="2" t="n">
         <v>44764.63989109953</v>
       </c>
       <c r="BZ94" t="n">
-        <v>0.262</v>
+        <v>0.2710000000000001</v>
       </c>
       <c r="CA94" t="n">
-        <v>0.01549193338482969</v>
+        <v>0.01398274799098198</v>
       </c>
       <c r="CB94" t="n">
-        <v>71.482</v>
+        <v>70.61266666666668</v>
       </c>
       <c r="CC94" t="n">
-        <v>0.2337995342643409</v>
+        <v>0.7929992535254693</v>
       </c>
     </row>
     <row r="95">
@@ -23848,10 +23848,10 @@
         <v>0.008235432385299829</v>
       </c>
       <c r="BW95" t="n">
-        <v>10336.5</v>
+        <v>10326.5</v>
       </c>
       <c r="BX95" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY95" s="2" t="n">
         <v>44764.76558554398</v>
@@ -23863,10 +23863,10 @@
         <v>0</v>
       </c>
       <c r="CB95" t="n">
-        <v>83.48699999999999</v>
+        <v>83.03233333333333</v>
       </c>
       <c r="CC95" t="n">
-        <v>0.1346641913963974</v>
+        <v>0.4045830832651953</v>
       </c>
     </row>
     <row r="96">
@@ -24093,25 +24093,25 @@
         <v>0.0264277636112268</v>
       </c>
       <c r="BW96" t="n">
-        <v>10429.5</v>
+        <v>10419.5</v>
       </c>
       <c r="BX96" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY96" s="2" t="n">
         <v>44764.83016887731</v>
       </c>
       <c r="BZ96" t="n">
-        <v>0.23</v>
+        <v>0.2300000000000002</v>
       </c>
       <c r="CA96" t="n">
         <v>0</v>
       </c>
       <c r="CB96" t="n">
-        <v>80.48099999999999</v>
+        <v>80.84166666666667</v>
       </c>
       <c r="CC96" t="n">
-        <v>0.08937436868463716</v>
+        <v>0.333849887114624</v>
       </c>
     </row>
     <row r="97">
@@ -24338,25 +24338,25 @@
         <v>0.0326046662181376</v>
       </c>
       <c r="BW97" t="n">
-        <v>10519.5</v>
+        <v>10509.5</v>
       </c>
       <c r="BX97" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY97" s="2" t="n">
         <v>44764.89266887731</v>
       </c>
       <c r="BZ97" t="n">
-        <v>0.23</v>
+        <v>0.2260000000000002</v>
       </c>
       <c r="CA97" t="n">
-        <v>0</v>
+        <v>0.01037237710925281</v>
       </c>
       <c r="CB97" t="n">
-        <v>68.55699999999999</v>
+        <v>69.38466666666666</v>
       </c>
       <c r="CC97" t="n">
-        <v>0.2145304951127753</v>
+        <v>0.7619201394178957</v>
       </c>
     </row>
     <row r="98">
@@ -24583,25 +24583,25 @@
         <v>0.0227526270537121</v>
       </c>
       <c r="BW98" t="n">
-        <v>10609.5</v>
+        <v>10599.5</v>
       </c>
       <c r="BX98" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY98" s="2" t="n">
         <v>44764.95516887731</v>
       </c>
       <c r="BZ98" t="n">
-        <v>0.206</v>
+        <v>0.2016666666666668</v>
       </c>
       <c r="CA98" t="n">
-        <v>0.01264911064067352</v>
+        <v>0.007914775938769183</v>
       </c>
       <c r="CB98" t="n">
-        <v>53.301</v>
+        <v>54.21966666666666</v>
       </c>
       <c r="CC98" t="n">
-        <v>0.2369458447268774</v>
+        <v>0.8440889123510745</v>
       </c>
     </row>
     <row r="99">
@@ -24828,25 +24828,25 @@
         <v>0.011301641087936</v>
       </c>
       <c r="BW99" t="n">
-        <v>10699.5</v>
+        <v>10689.5</v>
       </c>
       <c r="BX99" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY99" s="2" t="n">
         <v>44765.01766887731</v>
       </c>
       <c r="BZ99" t="n">
-        <v>0.2</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="CA99" t="n">
         <v>0</v>
       </c>
       <c r="CB99" t="n">
-        <v>37.334</v>
+        <v>38.19733333333333</v>
       </c>
       <c r="CC99" t="n">
-        <v>0.209454317480236</v>
+        <v>0.801115314499994</v>
       </c>
     </row>
     <row r="100">
@@ -25073,10 +25073,10 @@
         <v>0.00218600737320124</v>
       </c>
       <c r="BW100" t="n">
-        <v>10790.5</v>
+        <v>10780.5</v>
       </c>
       <c r="BX100" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY100" s="2" t="n">
         <v>44765.08086332176</v>
@@ -25088,10 +25088,10 @@
         <v>0</v>
       </c>
       <c r="CB100" t="n">
-        <v>21.423</v>
+        <v>22.431</v>
       </c>
       <c r="CC100" t="n">
-        <v>0.2297849235940238</v>
+        <v>0.9041717490190363</v>
       </c>
     </row>
     <row r="101">
@@ -25318,25 +25318,25 @@
         <v>0.00114595751304314</v>
       </c>
       <c r="BW101" t="n">
-        <v>10972.5</v>
+        <v>10962.5</v>
       </c>
       <c r="BX101" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY101" s="2" t="n">
         <v>44765.20725221065</v>
       </c>
       <c r="BZ101" t="n">
-        <v>10.018</v>
+        <v>9.979666666666667</v>
       </c>
       <c r="CA101" t="n">
-        <v>0.01873795909673887</v>
+        <v>0.0361494344242808</v>
       </c>
       <c r="CB101" t="n">
-        <v>16.214</v>
+        <v>16.421</v>
       </c>
       <c r="CC101" t="n">
-        <v>0.06239658110292098</v>
+        <v>0.1913175731424143</v>
       </c>
     </row>
     <row r="102">
@@ -25563,25 +25563,25 @@
         <v>0.0155654348092924</v>
       </c>
       <c r="BW102" t="n">
-        <v>11062.5</v>
+        <v>11052.5</v>
       </c>
       <c r="BX102" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY102" s="2" t="n">
         <v>44765.26975221065</v>
       </c>
       <c r="BZ102" t="n">
-        <v>10.106</v>
+        <v>10.108</v>
       </c>
       <c r="CA102" t="n">
-        <v>0.009660917830793609</v>
+        <v>0.008469010445798038</v>
       </c>
       <c r="CB102" t="n">
-        <v>31.382</v>
+        <v>31.14333333333333</v>
       </c>
       <c r="CC102" t="n">
-        <v>0.05349974039397184</v>
+        <v>0.2306861329903074</v>
       </c>
     </row>
     <row r="103">
@@ -25808,25 +25808,25 @@
         <v>0.020471116606051</v>
       </c>
       <c r="BW103" t="n">
-        <v>11153.5</v>
+        <v>11143.5</v>
       </c>
       <c r="BX103" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY103" s="2" t="n">
         <v>44765.33294665509</v>
       </c>
       <c r="BZ103" t="n">
-        <v>10.137</v>
+        <v>10.13766666666666</v>
       </c>
       <c r="CA103" t="n">
-        <v>0.006749485577105297</v>
+        <v>0.008583598366625603</v>
       </c>
       <c r="CB103" t="n">
-        <v>46.17900000000001</v>
+        <v>45.87033333333334</v>
       </c>
       <c r="CC103" t="n">
-        <v>0.05526702854726072</v>
+        <v>0.2910087489303765</v>
       </c>
     </row>
     <row r="104">
@@ -26053,25 +26053,25 @@
         <v>0.0353885087403893</v>
       </c>
       <c r="BW104" t="n">
-        <v>11244.5</v>
+        <v>11234.5</v>
       </c>
       <c r="BX104" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY104" s="2" t="n">
         <v>44765.39614109954</v>
       </c>
       <c r="BZ104" t="n">
-        <v>10.145</v>
+        <v>10.15166666666666</v>
       </c>
       <c r="CA104" t="n">
-        <v>0.007071067811865455</v>
+        <v>0.009498941259817534</v>
       </c>
       <c r="CB104" t="n">
-        <v>60.99699999999999</v>
+        <v>60.61166666666666</v>
       </c>
       <c r="CC104" t="n">
-        <v>0.08920014947670732</v>
+        <v>0.3595982752186501</v>
       </c>
     </row>
     <row r="105">
@@ -26298,25 +26298,25 @@
         <v>0.0269755401171174</v>
       </c>
       <c r="BW105" t="n">
-        <v>11335.5</v>
+        <v>11325.5</v>
       </c>
       <c r="BX105" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY105" s="2" t="n">
         <v>44765.45933554398</v>
       </c>
       <c r="BZ105" t="n">
-        <v>10.168</v>
+        <v>10.17533333333333</v>
       </c>
       <c r="CA105" t="n">
-        <v>0.01032795558988642</v>
+        <v>0.01357821107848732</v>
       </c>
       <c r="CB105" t="n">
-        <v>75.34599999999998</v>
+        <v>74.81033333333335</v>
       </c>
       <c r="CC105" t="n">
-        <v>0.1438517755654591</v>
+        <v>0.4916508666855343</v>
       </c>
     </row>
     <row r="106">
@@ -26543,10 +26543,10 @@
         <v>0.0141532959097415</v>
       </c>
       <c r="BW106" t="n">
-        <v>11517.5</v>
+        <v>11507.5</v>
       </c>
       <c r="BX106" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY106" s="2" t="n">
         <v>44765.58572443287</v>
@@ -26555,13 +26555,13 @@
         <v>10.193</v>
       </c>
       <c r="CA106" t="n">
-        <v>0.00483045891539646</v>
+        <v>0.004660915996993573</v>
       </c>
       <c r="CB106" t="n">
-        <v>88.34999999999999</v>
+        <v>88.04899999999999</v>
       </c>
       <c r="CC106" t="n">
-        <v>0.08192137151628277</v>
+        <v>0.2668765696877086</v>
       </c>
     </row>
     <row r="107">
@@ -26788,25 +26788,25 @@
         <v>0.0188454313161726</v>
       </c>
       <c r="BW107" t="n">
-        <v>11609.5</v>
+        <v>11599.5</v>
       </c>
       <c r="BX107" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY107" s="2" t="n">
         <v>44765.64961332176</v>
       </c>
       <c r="BZ107" t="n">
-        <v>10.109</v>
+        <v>10.10833333333334</v>
       </c>
       <c r="CA107" t="n">
-        <v>0.00994428926011735</v>
+        <v>0.007914775938768919</v>
       </c>
       <c r="CB107" t="n">
-        <v>80.867</v>
+        <v>81.29533333333333</v>
       </c>
       <c r="CC107" t="n">
-        <v>0.1025291286524127</v>
+        <v>0.3942319755863393</v>
       </c>
     </row>
     <row r="108">
@@ -27033,25 +27033,25 @@
         <v>0.0319523526412133</v>
       </c>
       <c r="BW108" t="n">
-        <v>11700.5</v>
+        <v>11690.5</v>
       </c>
       <c r="BX108" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY108" s="2" t="n">
         <v>44765.71280776621</v>
       </c>
       <c r="BZ108" t="n">
-        <v>10.101</v>
+        <v>10.097</v>
       </c>
       <c r="CA108" t="n">
-        <v>0.008755950357708653</v>
+        <v>0.01263547278157048</v>
       </c>
       <c r="CB108" t="n">
-        <v>66.35999999999999</v>
+        <v>66.90333333333334</v>
       </c>
       <c r="CC108" t="n">
-        <v>0.1271045064329144</v>
+        <v>0.512198327249113</v>
       </c>
     </row>
     <row r="109">
@@ -27278,25 +27278,25 @@
         <v>0.0228793357390251</v>
       </c>
       <c r="BW109" t="n">
-        <v>11792.5</v>
+        <v>11782.5</v>
       </c>
       <c r="BX109" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY109" s="2" t="n">
         <v>44765.77669665509</v>
       </c>
       <c r="BZ109" t="n">
-        <v>10.091</v>
+        <v>10.08833333333333</v>
       </c>
       <c r="CA109" t="n">
-        <v>0.008755950357708476</v>
+        <v>0.01019916606913252</v>
       </c>
       <c r="CB109" t="n">
-        <v>50.467</v>
+        <v>50.88166666666665</v>
       </c>
       <c r="CC109" t="n">
-        <v>0.1026374417278827</v>
+        <v>0.3987055203455623</v>
       </c>
     </row>
     <row r="110">
@@ -27523,25 +27523,25 @@
         <v>0.0102687919527308</v>
       </c>
       <c r="BW110" t="n">
-        <v>11883.5</v>
+        <v>11873.5</v>
       </c>
       <c r="BX110" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY110" s="2" t="n">
         <v>44765.83989109954</v>
       </c>
       <c r="BZ110" t="n">
-        <v>10.08</v>
+        <v>10.08033333333333</v>
       </c>
       <c r="CA110" t="n">
-        <v>0.013333333333333</v>
+        <v>0.01325696520463054</v>
       </c>
       <c r="CB110" t="n">
-        <v>34.541</v>
+        <v>34.91366666666668</v>
       </c>
       <c r="CC110" t="n">
-        <v>0.07908504564355601</v>
+        <v>0.3475181298503938</v>
       </c>
     </row>
     <row r="111">
@@ -27768,25 +27768,25 @@
         <v>0.000857151360388744</v>
       </c>
       <c r="BW111" t="n">
-        <v>11975.5</v>
+        <v>11965.5</v>
       </c>
       <c r="BX111" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY111" s="2" t="n">
         <v>44765.90377998842</v>
       </c>
       <c r="BZ111" t="n">
-        <v>10.076</v>
+        <v>10.07433333333333</v>
       </c>
       <c r="CA111" t="n">
-        <v>0.0157762127549325</v>
+        <v>0.01304721752165789</v>
       </c>
       <c r="CB111" t="n">
-        <v>17.606</v>
+        <v>18.11233333333334</v>
       </c>
       <c r="CC111" t="n">
-        <v>0.1178699848703375</v>
+        <v>0.4666216316529233</v>
       </c>
     </row>
     <row r="112">
@@ -28013,25 +28013,25 @@
         <v>0.000434743160915658</v>
       </c>
       <c r="BW112" t="n">
-        <v>12157.5</v>
+        <v>12147.5</v>
       </c>
       <c r="BX112" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY112" s="2" t="n">
         <v>44766.03016887732</v>
       </c>
       <c r="BZ112" t="n">
-        <v>19.981</v>
+        <v>19.93366666666667</v>
       </c>
       <c r="CA112" t="n">
-        <v>0.01595131481867534</v>
+        <v>0.04114594154648835</v>
       </c>
       <c r="CB112" t="n">
-        <v>15.44</v>
+        <v>15.555</v>
       </c>
       <c r="CC112" t="n">
-        <v>0.04320493798938577</v>
+        <v>0.1083337754190796</v>
       </c>
     </row>
     <row r="113">
@@ -28258,25 +28258,25 @@
         <v>0.00980346533770193</v>
       </c>
       <c r="BW113" t="n">
-        <v>12249.5</v>
+        <v>12239.5</v>
       </c>
       <c r="BX113" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY113" s="2" t="n">
         <v>44766.0940577662</v>
       </c>
       <c r="BZ113" t="n">
-        <v>20.13</v>
+        <v>20.12866666666666</v>
       </c>
       <c r="CA113" t="n">
-        <v>0.006666666666666799</v>
+        <v>0.01105888107245569</v>
       </c>
       <c r="CB113" t="n">
-        <v>31.49399999999999</v>
+        <v>31.419</v>
       </c>
       <c r="CC113" t="n">
-        <v>0.02065591117977533</v>
+        <v>0.07368853370776249</v>
       </c>
     </row>
     <row r="114">
@@ -28503,25 +28503,25 @@
         <v>0.0155632717985066</v>
       </c>
       <c r="BW114" t="n">
-        <v>12340.5</v>
+        <v>12330.5</v>
       </c>
       <c r="BX114" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY114" s="2" t="n">
         <v>44766.15725221065</v>
       </c>
       <c r="BZ114" t="n">
-        <v>20.165</v>
+        <v>20.17633333333334</v>
       </c>
       <c r="CA114" t="n">
-        <v>0.01178511301977607</v>
+        <v>0.01299425160263831</v>
       </c>
       <c r="CB114" t="n">
-        <v>46.621</v>
+        <v>46.48866666666666</v>
       </c>
       <c r="CC114" t="n">
-        <v>0.04408325456829591</v>
+        <v>0.1218176515529878</v>
       </c>
     </row>
     <row r="115">
@@ -28748,25 +28748,25 @@
         <v>0.0280062390371878</v>
       </c>
       <c r="BW115" t="n">
-        <v>12432.5</v>
+        <v>12422.5</v>
       </c>
       <c r="BX115" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY115" s="2" t="n">
         <v>44766.22114109954</v>
       </c>
       <c r="BZ115" t="n">
-        <v>20.193</v>
+        <v>20.19266666666667</v>
       </c>
       <c r="CA115" t="n">
-        <v>0.009486832980505098</v>
+        <v>0.01014832526809827</v>
       </c>
       <c r="CB115" t="n">
-        <v>61.729</v>
+        <v>61.56066666666667</v>
       </c>
       <c r="CC115" t="n">
-        <v>0.0381371792932346</v>
+        <v>0.1585045051754717</v>
       </c>
     </row>
     <row r="116">
@@ -28993,25 +28993,25 @@
         <v>0.0227458372619047</v>
       </c>
       <c r="BW116" t="n">
-        <v>12525.5</v>
+        <v>12515.5</v>
       </c>
       <c r="BX116" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY116" s="2" t="n">
         <v>44766.28572443287</v>
       </c>
       <c r="BZ116" t="n">
-        <v>20.206</v>
+        <v>20.20966666666666</v>
       </c>
       <c r="CA116" t="n">
-        <v>0.01173787790777242</v>
+        <v>0.009643054793328828</v>
       </c>
       <c r="CB116" t="n">
-        <v>76.617</v>
+        <v>76.35233333333332</v>
       </c>
       <c r="CC116" t="n">
-        <v>0.06634087059355759</v>
+        <v>0.2464322433747466</v>
       </c>
     </row>
     <row r="117">
@@ -29238,25 +29238,25 @@
         <v>0.00856331530715855</v>
       </c>
       <c r="BW117" t="n">
-        <v>12706.5</v>
+        <v>12696.5</v>
       </c>
       <c r="BX117" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY117" s="2" t="n">
         <v>44766.41141887732</v>
       </c>
       <c r="BZ117" t="n">
-        <v>20.211</v>
+        <v>20.21333333333334</v>
       </c>
       <c r="CA117" t="n">
-        <v>0.009944289260117038</v>
+        <v>0.008441822541139085</v>
       </c>
       <c r="CB117" t="n">
-        <v>90.452</v>
+        <v>90.26266666666665</v>
       </c>
       <c r="CC117" t="n">
-        <v>0.05159672685569634</v>
+        <v>0.1698464485703226</v>
       </c>
     </row>
     <row r="118">
@@ -29483,25 +29483,25 @@
         <v>0.0239228812372073</v>
       </c>
       <c r="BW118" t="n">
-        <v>12796.5</v>
+        <v>12786.5</v>
       </c>
       <c r="BX118" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY118" s="2" t="n">
         <v>44766.47391887732</v>
       </c>
       <c r="BZ118" t="n">
-        <v>20.122</v>
+        <v>20.126</v>
       </c>
       <c r="CA118" t="n">
-        <v>0.01032795558988633</v>
+        <v>0.008550055454548282</v>
       </c>
       <c r="CB118" t="n">
-        <v>80.05100000000002</v>
+        <v>80.37666666666668</v>
       </c>
       <c r="CC118" t="n">
-        <v>0.07248754682318852</v>
+        <v>0.309207366345459</v>
       </c>
     </row>
     <row r="119">
@@ -29728,25 +29728,25 @@
         <v>0.0257524309321192</v>
       </c>
       <c r="BW119" t="n">
-        <v>12887.5</v>
+        <v>12877.5</v>
       </c>
       <c r="BX119" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY119" s="2" t="n">
         <v>44766.53711332176</v>
       </c>
       <c r="BZ119" t="n">
-        <v>20.123</v>
+        <v>20.12133333333334</v>
       </c>
       <c r="CA119" t="n">
-        <v>0.00948683298050495</v>
+        <v>0.009371024061116456</v>
       </c>
       <c r="CB119" t="n">
-        <v>65.00800000000001</v>
+        <v>65.25166666666668</v>
       </c>
       <c r="CC119" t="n">
-        <v>0.05223876806442523</v>
+        <v>0.2281875111172496</v>
       </c>
     </row>
     <row r="120">
@@ -29973,25 +29973,25 @@
         <v>0.0167384206540093</v>
       </c>
       <c r="BW120" t="n">
-        <v>12978.5</v>
+        <v>12968.5</v>
       </c>
       <c r="BX120" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY120" s="2" t="n">
         <v>44766.6003077662</v>
       </c>
       <c r="BZ120" t="n">
-        <v>20.113</v>
+        <v>20.10266666666667</v>
       </c>
       <c r="CA120" t="n">
-        <v>0.00948683298050537</v>
+        <v>0.01257620449659911</v>
       </c>
       <c r="CB120" t="n">
-        <v>49.33399999999999</v>
+        <v>49.54566666666666</v>
       </c>
       <c r="CC120" t="n">
-        <v>0.04427188724235281</v>
+        <v>0.1984019489151599</v>
       </c>
     </row>
     <row r="121">
@@ -30218,25 +30218,25 @@
         <v>0.00744676256274446</v>
       </c>
       <c r="BW121" t="n">
-        <v>13069.5</v>
+        <v>13059.5</v>
       </c>
       <c r="BX121" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY121" s="2" t="n">
         <v>44766.66350221065</v>
       </c>
       <c r="BZ121" t="n">
-        <v>20.108</v>
+        <v>20.09466666666667</v>
       </c>
       <c r="CA121" t="n">
-        <v>0.009189365834726479</v>
+        <v>0.01357821107848993</v>
       </c>
       <c r="CB121" t="n">
-        <v>33.515</v>
+        <v>33.68000000000001</v>
       </c>
       <c r="CC121" t="n">
-        <v>0.04222953153106915</v>
+        <v>0.1552972677779992</v>
       </c>
     </row>
     <row r="122">
@@ -30463,25 +30463,25 @@
         <v>0.000693365928851932</v>
       </c>
       <c r="BW122" t="n">
-        <v>13160.5</v>
+        <v>13150.5</v>
       </c>
       <c r="BX122" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY122" s="2" t="n">
         <v>44766.7266966551</v>
       </c>
       <c r="BZ122" t="n">
-        <v>20.086</v>
+        <v>20.08066666666667</v>
       </c>
       <c r="CA122" t="n">
-        <v>0.006992058987801966</v>
+        <v>0.009444331755019936</v>
       </c>
       <c r="CB122" t="n">
-        <v>16.037</v>
+        <v>16.25833333333333</v>
       </c>
       <c r="CC122" t="n">
-        <v>0.05313504806936052</v>
+        <v>0.2042662787727776</v>
       </c>
     </row>
     <row r="123">
@@ -30708,25 +30708,25 @@
         <v>0.000738172475947061</v>
       </c>
       <c r="BW123" t="n">
-        <v>13343.5</v>
+        <v>13333.5</v>
       </c>
       <c r="BX123" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY123" s="2" t="n">
         <v>44766.85377998843</v>
       </c>
       <c r="BZ123" t="n">
-        <v>29.893</v>
+        <v>29.851</v>
       </c>
       <c r="CA123" t="n">
-        <v>0.02162817093001078</v>
+        <v>0.04130208310685431</v>
       </c>
       <c r="CB123" t="n">
-        <v>15.158</v>
+        <v>15.22799999999999</v>
       </c>
       <c r="CC123" t="n">
-        <v>0.02529822128134648</v>
+        <v>0.06493498074333925</v>
       </c>
     </row>
     <row r="124">
@@ -30953,25 +30953,25 @@
         <v>0.00223596622001493</v>
       </c>
       <c r="BW124" t="n">
-        <v>13434.5</v>
+        <v>13424.5</v>
       </c>
       <c r="BX124" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY124" s="2" t="n">
         <v>44766.91697443287</v>
       </c>
       <c r="BZ124" t="n">
-        <v>30.099</v>
+        <v>30.09433333333335</v>
       </c>
       <c r="CA124" t="n">
-        <v>0.003162277660168895</v>
+        <v>0.01135123670410644</v>
       </c>
       <c r="CB124" t="n">
-        <v>31.55</v>
+        <v>31.51299999999998</v>
       </c>
       <c r="CC124" t="n">
-        <v>0</v>
+        <v>0.03312983861863306</v>
       </c>
     </row>
     <row r="125">
@@ -31198,25 +31198,25 @@
         <v>0.00793594296504709</v>
       </c>
       <c r="BW125" t="n">
-        <v>13526.5</v>
+        <v>13516.5</v>
       </c>
       <c r="BX125" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY125" s="2" t="n">
         <v>44766.98086332176</v>
       </c>
       <c r="BZ125" t="n">
-        <v>30.13</v>
+        <v>30.13266666666666</v>
       </c>
       <c r="CA125" t="n">
-        <v>0.01414213562373064</v>
+        <v>0.01080655399261961</v>
       </c>
       <c r="CB125" t="n">
-        <v>46.89099999999999</v>
+        <v>46.81866666666668</v>
       </c>
       <c r="CC125" t="n">
-        <v>0.02024845673131785</v>
+        <v>0.06714540749095363</v>
       </c>
     </row>
     <row r="126">
@@ -31443,25 +31443,25 @@
         <v>0.007872515363269</v>
       </c>
       <c r="BW126" t="n">
-        <v>13618.5</v>
+        <v>13608.5</v>
       </c>
       <c r="BX126" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY126" s="2" t="n">
         <v>44767.04475221065</v>
       </c>
       <c r="BZ126" t="n">
-        <v>30.131</v>
+        <v>30.13633333333333</v>
       </c>
       <c r="CA126" t="n">
-        <v>0.009944289260117216</v>
+        <v>0.01376736103561725</v>
       </c>
       <c r="CB126" t="n">
-        <v>62.114</v>
+        <v>62.011</v>
       </c>
       <c r="CC126" t="n">
-        <v>0.02590581230363203</v>
+        <v>0.0922646119630316</v>
       </c>
     </row>
     <row r="127">
@@ -31688,25 +31688,25 @@
         <v>0.0146418399677523</v>
       </c>
       <c r="BW127" t="n">
-        <v>13710.5</v>
+        <v>13700.5</v>
       </c>
       <c r="BX127" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY127" s="2" t="n">
         <v>44767.10864109953</v>
       </c>
       <c r="BZ127" t="n">
-        <v>30.148</v>
+        <v>30.15333333333332</v>
       </c>
       <c r="CA127" t="n">
-        <v>0.01135292424395096</v>
+        <v>0.01028334218222901</v>
       </c>
       <c r="CB127" t="n">
-        <v>77.196</v>
+        <v>77.04299999999999</v>
       </c>
       <c r="CC127" t="n">
-        <v>0.04033195589934441</v>
+        <v>0.1393123506171756</v>
       </c>
     </row>
     <row r="128">
@@ -31933,25 +31933,25 @@
         <v>0.0101912022631151</v>
       </c>
       <c r="BW128" t="n">
-        <v>13893.5</v>
+        <v>13883.5</v>
       </c>
       <c r="BX128" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY128" s="2" t="n">
         <v>44767.23572443287</v>
       </c>
       <c r="BZ128" t="n">
-        <v>30.154</v>
+        <v>30.15566666666666</v>
       </c>
       <c r="CA128" t="n">
-        <v>0.006992058987801862</v>
+        <v>0.006789105539245362</v>
       </c>
       <c r="CB128" t="n">
-        <v>91.79700000000001</v>
+        <v>91.66400000000002</v>
       </c>
       <c r="CC128" t="n">
-        <v>0.04110960958219089</v>
+        <v>0.1200459682070195</v>
       </c>
     </row>
     <row r="129">
@@ -32178,25 +32178,25 @@
         <v>0.0102510500637109</v>
       </c>
       <c r="BW129" t="n">
-        <v>13985.5</v>
+        <v>13975.5</v>
       </c>
       <c r="BX129" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY129" s="2" t="n">
         <v>44767.29961332176</v>
       </c>
       <c r="BZ129" t="n">
-        <v>30.102</v>
+        <v>30.10066666666668</v>
       </c>
       <c r="CA129" t="n">
-        <v>0.004216370213557074</v>
+        <v>0.002537081317024474</v>
       </c>
       <c r="CB129" t="n">
-        <v>79.77500000000001</v>
+        <v>79.91933333333334</v>
       </c>
       <c r="CC129" t="n">
-        <v>0.03240370349204244</v>
+        <v>0.1379138495041586</v>
       </c>
     </row>
     <row r="130">
@@ -32423,25 +32423,25 @@
         <v>0.0100145233642166</v>
       </c>
       <c r="BW130" t="n">
-        <v>14078.5</v>
+        <v>14068.5</v>
       </c>
       <c r="BX130" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY130" s="2" t="n">
         <v>44767.36419665509</v>
       </c>
       <c r="BZ130" t="n">
-        <v>30.073</v>
+        <v>30.068</v>
       </c>
       <c r="CA130" t="n">
-        <v>0.01251665557034643</v>
+        <v>0.01447947417601205</v>
       </c>
       <c r="CB130" t="n">
-        <v>64.66</v>
+        <v>64.77866666666667</v>
       </c>
       <c r="CC130" t="n">
-        <v>0.03741657386774358</v>
+        <v>0.1075986582833028</v>
       </c>
     </row>
     <row r="131">
@@ -32668,25 +32668,25 @@
         <v>0.00775232271469488</v>
       </c>
       <c r="BW131" t="n">
-        <v>14169.5</v>
+        <v>14159.5</v>
       </c>
       <c r="BX131" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY131" s="2" t="n">
         <v>44767.42739109954</v>
       </c>
       <c r="BZ131" t="n">
-        <v>30.037</v>
+        <v>30.03399999999999</v>
       </c>
       <c r="CA131" t="n">
-        <v>0.0133749350984916</v>
+        <v>0.0154473521891347</v>
       </c>
       <c r="CB131" t="n">
-        <v>48.983</v>
+        <v>49.10533333333334</v>
       </c>
       <c r="CC131" t="n">
-        <v>0.03093002855909887</v>
+        <v>0.1099759639361135</v>
       </c>
     </row>
     <row r="132">
@@ -32913,25 +32913,25 @@
         <v>0.00429008930519794</v>
       </c>
       <c r="BW132" t="n">
-        <v>14260.5</v>
+        <v>14250.5</v>
       </c>
       <c r="BX132" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY132" s="2" t="n">
         <v>44767.49058554398</v>
       </c>
       <c r="BZ132" t="n">
-        <v>30.016</v>
+        <v>30.00399999999999</v>
       </c>
       <c r="CA132" t="n">
-        <v>0.01074967699773056</v>
+        <v>0.0142876845931883</v>
       </c>
       <c r="CB132" t="n">
-        <v>33.106</v>
+        <v>33.23033333333333</v>
       </c>
       <c r="CC132" t="n">
-        <v>0.03169297153067877</v>
+        <v>0.1111222791322196</v>
       </c>
     </row>
     <row r="133">
@@ -33158,25 +33158,25 @@
         <v>0.000646252094560486</v>
       </c>
       <c r="BW133" t="n">
-        <v>14351.5</v>
+        <v>14341.5</v>
       </c>
       <c r="BX133" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY133" s="2" t="n">
         <v>44767.55377998843</v>
       </c>
       <c r="BZ133" t="n">
-        <v>29.98800000000001</v>
+        <v>29.98066666666667</v>
       </c>
       <c r="CA133" t="n">
-        <v>0.006324555320335795</v>
+        <v>0.009444331755018806</v>
       </c>
       <c r="CB133" t="n">
-        <v>15.57</v>
+        <v>15.682</v>
       </c>
       <c r="CC133" t="n">
-        <v>0.03887301263230152</v>
+        <v>0.1035374328443568</v>
       </c>
     </row>
     <row r="134">
@@ -33403,25 +33403,25 @@
         <v>0.000696523977819397</v>
       </c>
       <c r="BW134" t="n">
-        <v>14533.5</v>
+        <v>14523.5</v>
       </c>
       <c r="BX134" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY134" s="2" t="n">
         <v>44767.68016887731</v>
       </c>
       <c r="BZ134" t="n">
-        <v>39.931</v>
+        <v>39.88500000000001</v>
       </c>
       <c r="CA134" t="n">
-        <v>0.009944289260114966</v>
+        <v>0.03919447533201215</v>
       </c>
       <c r="CB134" t="n">
-        <v>15.074</v>
+        <v>15.13399999999999</v>
       </c>
       <c r="CC134" t="n">
-        <v>0.02065591117977238</v>
+        <v>0.05787024725401961</v>
       </c>
     </row>
     <row r="135">
@@ -33648,25 +33648,25 @@
         <v>0.00364646520416988</v>
       </c>
       <c r="BW135" t="n">
-        <v>14624.5</v>
+        <v>14614.5</v>
       </c>
       <c r="BX135" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY135" s="2" t="n">
         <v>44767.74336332176</v>
       </c>
       <c r="BZ135" t="n">
-        <v>40.08299999999999</v>
+        <v>40.084</v>
       </c>
       <c r="CA135" t="n">
-        <v>0.009486832980505497</v>
+        <v>0.01037237710925341</v>
       </c>
       <c r="CB135" t="n">
-        <v>31.55</v>
+        <v>31.53533333333331</v>
       </c>
       <c r="CC135" t="n">
-        <v>0</v>
+        <v>0.01960530071414276</v>
       </c>
     </row>
     <row r="136">
@@ -33893,25 +33893,25 @@
         <v>0.0101244929214858</v>
       </c>
       <c r="BW136" t="n">
-        <v>14714.5</v>
+        <v>14704.5</v>
       </c>
       <c r="BX136" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY136" s="2" t="n">
         <v>44767.80586332176</v>
       </c>
       <c r="BZ136" t="n">
-        <v>40.171</v>
+        <v>40.18500000000001</v>
       </c>
       <c r="CA136" t="n">
-        <v>0.01100504934614329</v>
+        <v>0.01456258787157563</v>
       </c>
       <c r="CB136" t="n">
-        <v>47.069</v>
+        <v>47.01299999999998</v>
       </c>
       <c r="CC136" t="n">
-        <v>0.01791957340762011</v>
+        <v>0.0533142925780924</v>
       </c>
     </row>
     <row r="137">
@@ -34138,25 +34138,25 @@
         <v>0.0147341222341297</v>
       </c>
       <c r="BW137" t="n">
-        <v>14805.5</v>
+        <v>14795.5</v>
       </c>
       <c r="BX137" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY137" s="2" t="n">
         <v>44767.86905776621</v>
       </c>
       <c r="BZ137" t="n">
-        <v>40.22000000000001</v>
+        <v>40.22166666666669</v>
       </c>
       <c r="CA137" t="n">
-        <v>0</v>
+        <v>0.00379049021789262</v>
       </c>
       <c r="CB137" t="n">
-        <v>62.364</v>
+        <v>62.28199999999996</v>
       </c>
       <c r="CC137" t="n">
-        <v>0.018973665961007</v>
+        <v>0.07498965445887436</v>
       </c>
     </row>
     <row r="138">
@@ -34383,25 +34383,25 @@
         <v>0.0127648855738276</v>
       </c>
       <c r="BW138" t="n">
-        <v>14896.5</v>
+        <v>14886.5</v>
       </c>
       <c r="BX138" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY138" s="2" t="n">
         <v>44767.93225221064</v>
       </c>
       <c r="BZ138" t="n">
-        <v>40.234</v>
+        <v>40.23666666666667</v>
       </c>
       <c r="CA138" t="n">
-        <v>0.00516397779494572</v>
+        <v>0.004794633014858978</v>
       </c>
       <c r="CB138" t="n">
-        <v>77.49699999999999</v>
+        <v>77.38200000000003</v>
       </c>
       <c r="CC138" t="n">
-        <v>0.03301514803844324</v>
+        <v>0.1027014420877276</v>
       </c>
     </row>
     <row r="139">
@@ -34628,10 +34628,10 @@
         <v>0.0100066671588096</v>
       </c>
       <c r="BW139" t="n">
-        <v>15078.5</v>
+        <v>15068.5</v>
       </c>
       <c r="BX139" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY139" s="2" t="n">
         <v>44768.05864109954</v>
@@ -34643,10 +34643,10 @@
         <v>0</v>
       </c>
       <c r="CB139" t="n">
-        <v>92.61999999999999</v>
+        <v>92.51333333333332</v>
       </c>
       <c r="CC139" t="n">
-        <v>0.03559026084010829</v>
+        <v>0.09286004795253477</v>
       </c>
     </row>
     <row r="140">
@@ -34873,25 +34873,25 @@
         <v>0.0143549049531653</v>
       </c>
       <c r="BW140" t="n">
-        <v>15170.5</v>
+        <v>15160.5</v>
       </c>
       <c r="BX140" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY140" s="2" t="n">
         <v>44768.12252998842</v>
       </c>
       <c r="BZ140" t="n">
-        <v>40.122</v>
+        <v>40.11733333333333</v>
       </c>
       <c r="CA140" t="n">
-        <v>0.01032795558988684</v>
+        <v>0.007849152527650571</v>
       </c>
       <c r="CB140" t="n">
-        <v>79.75</v>
+        <v>79.84499999999998</v>
       </c>
       <c r="CC140" t="n">
-        <v>0.01825741858351081</v>
+        <v>0.08609337352849383</v>
       </c>
     </row>
     <row r="141">
@@ -35118,25 +35118,25 @@
         <v>0.00942179549543278</v>
       </c>
       <c r="BW141" t="n">
-        <v>15262.5</v>
+        <v>15252.5</v>
       </c>
       <c r="BX141" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY141" s="2" t="n">
         <v>44768.18641887732</v>
       </c>
       <c r="BZ141" t="n">
-        <v>40.065</v>
+        <v>40.06233333333331</v>
       </c>
       <c r="CA141" t="n">
-        <v>0.008498365855987077</v>
+        <v>0.006260623155793284</v>
       </c>
       <c r="CB141" t="n">
-        <v>64.53</v>
+        <v>64.63533333333332</v>
       </c>
       <c r="CC141" t="n">
-        <v>0.02449489742783177</v>
+        <v>0.09427521462163857</v>
       </c>
     </row>
     <row r="142">
@@ -35363,25 +35363,25 @@
         <v>0.00428845870951982</v>
       </c>
       <c r="BW142" t="n">
-        <v>15353.5</v>
+        <v>15343.5</v>
       </c>
       <c r="BX142" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY142" s="2" t="n">
         <v>44768.24961332176</v>
       </c>
       <c r="BZ142" t="n">
-        <v>40.04200000000001</v>
+        <v>40.03933333333331</v>
       </c>
       <c r="CA142" t="n">
-        <v>0.004216370213559903</v>
+        <v>0.01080655399261593</v>
       </c>
       <c r="CB142" t="n">
-        <v>48.825</v>
+        <v>48.91699999999998</v>
       </c>
       <c r="CC142" t="n">
-        <v>0.02121320343559546</v>
+        <v>0.08317617364407405</v>
       </c>
     </row>
     <row r="143">
@@ -35608,25 +35608,25 @@
         <v>0.00334732089469035</v>
       </c>
       <c r="BW143" t="n">
-        <v>15445.5</v>
+        <v>15435.5</v>
       </c>
       <c r="BX143" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY143" s="2" t="n">
         <v>44768.31350221065</v>
       </c>
       <c r="BZ143" t="n">
-        <v>40.02</v>
+        <v>40.002</v>
       </c>
       <c r="CA143" t="n">
-        <v>0</v>
+        <v>0.01494818637367367</v>
       </c>
       <c r="CB143" t="n">
-        <v>32.80399999999999</v>
+        <v>32.88666666666667</v>
       </c>
       <c r="CC143" t="n">
-        <v>0.02065591117977391</v>
+        <v>0.07644395437782589</v>
       </c>
     </row>
     <row r="144">
@@ -35853,10 +35853,10 @@
         <v>0.000609540380752488</v>
       </c>
       <c r="BW144" t="n">
-        <v>15537.5</v>
+        <v>15527.5</v>
       </c>
       <c r="BX144" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY144" s="2" t="n">
         <v>44768.37739109954</v>
@@ -35868,10 +35868,10 @@
         <v>0</v>
       </c>
       <c r="CB144" t="n">
-        <v>15.381</v>
+        <v>15.454</v>
       </c>
       <c r="CC144" t="n">
-        <v>0.03071373199943933</v>
+        <v>0.0712257218164611</v>
       </c>
     </row>
     <row r="145">
@@ -36098,25 +36098,25 @@
         <v>0.000481116353997318</v>
       </c>
       <c r="BW145" t="n">
-        <v>15898.5</v>
+        <v>15888.5</v>
       </c>
       <c r="BX145" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY145" s="2" t="n">
         <v>44768.62808554398</v>
       </c>
       <c r="BZ145" t="n">
-        <v>30.076</v>
+        <v>30.079</v>
       </c>
       <c r="CA145" t="n">
-        <v>0.0157762127549322</v>
+        <v>0.01348050955754404</v>
       </c>
       <c r="CB145" t="n">
-        <v>14.36</v>
+        <v>14.38400000000001</v>
       </c>
       <c r="CC145" t="n">
-        <v>0</v>
+        <v>0.01993091516489665</v>
       </c>
     </row>
     <row r="146">
@@ -36343,25 +36343,25 @@
         <v>0.00378287070925243</v>
       </c>
       <c r="BW146" t="n">
-        <v>15990.5</v>
+        <v>15980.5</v>
       </c>
       <c r="BX146" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY146" s="2" t="n">
         <v>44768.69197443287</v>
       </c>
       <c r="BZ146" t="n">
-        <v>30.104</v>
+        <v>30.10900000000001</v>
       </c>
       <c r="CA146" t="n">
-        <v>0.005163977794943691</v>
+        <v>0.006617635789938856</v>
       </c>
       <c r="CB146" t="n">
-        <v>30.866</v>
+        <v>30.80733333333335</v>
       </c>
       <c r="CC146" t="n">
-        <v>0.02270584848790096</v>
+        <v>0.05526945488855561</v>
       </c>
     </row>
     <row r="147">
@@ -36588,25 +36588,25 @@
         <v>0.00463016858749802</v>
       </c>
       <c r="BW147" t="n">
-        <v>16083.5</v>
+        <v>16073.5</v>
       </c>
       <c r="BX147" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY147" s="2" t="n">
         <v>44768.7565577662</v>
       </c>
       <c r="BZ147" t="n">
-        <v>30.129</v>
+        <v>30.131</v>
       </c>
       <c r="CA147" t="n">
-        <v>0.003162277660168562</v>
+        <v>0.008448627719625245</v>
       </c>
       <c r="CB147" t="n">
-        <v>46.377</v>
+        <v>46.28866666666668</v>
       </c>
       <c r="CC147" t="n">
-        <v>0.02584139659108684</v>
+        <v>0.08050415852754964</v>
       </c>
     </row>
     <row r="148">
@@ -36833,25 +36833,25 @@
         <v>0.0106159405379435</v>
       </c>
       <c r="BW148" t="n">
-        <v>16175.5</v>
+        <v>16165.5</v>
       </c>
       <c r="BX148" t="n">
-        <v>3.027650354097492</v>
+        <v>8.803408430829505</v>
       </c>
       <c r="BY148" s="2" t="n">
         <v>44768.8204466551</v>
       </c>
       <c r="BZ148" t="n">
-        <v>30.151</v>
+        <v>30.14966666666665</v>
       </c>
       <c r="CA148" t="n">
-        <v>0.009944289260118314</v>
+        <v>0.009994251221140841</v>
       </c>
       <c r="CB148" t="n">
-        <v>61.809</v>
+        <v>61.69633333333331</v>
       </c>
       <c r="CC148" t="n">
-        <v>0.03178049716413741</v>
+        <v>0.1028049151291526</v>
       </c>
     </row>
     <row r="149">
